--- a/testdata/USFOOD.xlsx
+++ b/testdata/USFOOD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jisadg1\Desktop\Data scrubbing\August\8-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jisqhx3/automation/rulesBotGithubSyncVersion/wdio6/omRules/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA73642-DFF0-4DD4-8891-B7BBC9A1A226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403093DC-3034-E84C-995F-E5D6DC4F5DD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="-15105" windowWidth="15600" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="-15100" windowWidth="15600" windowHeight="13780" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Gold" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="204">
   <si>
     <t>PARENT(Bill To, Fleet, Service Offering)</t>
   </si>
@@ -657,6 +657,9 @@
   </si>
   <si>
     <t>MISSSING CODES ADDED TO RULES</t>
+  </si>
+  <si>
+    <t>HJBI</t>
   </si>
 </sst>
 </file>
@@ -949,6 +952,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,21 +984,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -984,11 +992,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1272,28 +1275,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="17" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="17" width="4.6640625" customWidth="1"/>
     <col min="18" max="18" width="7" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" customWidth="1"/>
-    <col min="20" max="20" width="4.7109375" customWidth="1"/>
+    <col min="19" max="19" width="7.5" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>27</v>
       </c>
@@ -1315,7 +1318,7 @@
       <c r="G1" s="33"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>51</v>
       </c>
@@ -1337,7 +1340,7 @@
       <c r="G2" s="45"/>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="38"/>
       <c r="C3" s="39"/>
@@ -1347,7 +1350,7 @@
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
         <v>200</v>
       </c>
@@ -1359,19 +1362,19 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="43"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="41"/>
@@ -1380,7 +1383,7 @@
       <c r="F6" s="50"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="41"/>
@@ -1394,7 +1397,7 @@
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="34"/>
@@ -1411,7 +1414,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="33"/>
       <c r="C9" s="36"/>
@@ -1428,14 +1431,14 @@
         <v>17</v>
       </c>
       <c r="M9" s="60"/>
-      <c r="N9" s="64" t="s">
+      <c r="N9" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64" t="s">
+      <c r="O9" s="58"/>
+      <c r="P9" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="64"/>
+      <c r="Q9" s="58"/>
       <c r="R9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="36"/>
@@ -1479,7 +1482,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="36"/>
@@ -1487,10 +1490,10 @@
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="61"/>
+      <c r="I11" s="59"/>
       <c r="J11" s="7">
         <v>2</v>
       </c>
@@ -1513,14 +1516,14 @@
       <c r="Q11" s="28">
         <v>2</v>
       </c>
-      <c r="R11" s="56">
+      <c r="R11" s="64">
         <v>1</v>
       </c>
-      <c r="S11" s="56">
+      <c r="S11" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="36"/>
@@ -1528,10 +1531,10 @@
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="61"/>
+      <c r="I12" s="59"/>
       <c r="J12" s="7">
         <v>3</v>
       </c>
@@ -1552,10 +1555,10 @@
       <c r="Q12" s="28">
         <v>0</v>
       </c>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="36"/>
@@ -1576,7 +1579,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="36"/>
@@ -1584,10 +1587,10 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="61"/>
+      <c r="I14" s="59"/>
       <c r="J14" s="7"/>
       <c r="K14" s="15"/>
       <c r="L14" s="25"/>
@@ -1599,7 +1602,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="36"/>
@@ -1607,10 +1610,10 @@
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
-      <c r="H15" s="61" t="s">
+      <c r="H15" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="61"/>
+      <c r="I15" s="59"/>
       <c r="J15" s="7"/>
       <c r="K15" s="15"/>
       <c r="L15" s="29"/>
@@ -1622,7 +1625,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="36"/>
@@ -1643,7 +1646,7 @@
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
       <c r="C17" s="36"/>
@@ -1656,7 +1659,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="36"/>
@@ -1664,14 +1667,14 @@
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-    </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="65"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+    </row>
+    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="37"/>
@@ -1679,14 +1682,14 @@
       <c r="E19" s="35"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
-      <c r="H19" s="58" t="s">
+      <c r="H19" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="36"/>
@@ -1695,7 +1698,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="37"/>
@@ -1704,7 +1707,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="37"/>
@@ -1713,7 +1716,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="36"/>
@@ -1722,7 +1725,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" s="36"/>
@@ -1731,7 +1734,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="33"/>
       <c r="C25" s="36"/>
@@ -1740,7 +1743,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="36"/>
@@ -1749,7 +1752,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="36"/>
@@ -1765,22 +1768,22 @@
     <sortCondition ref="C18:C22"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="R11:R12"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1795,15 +1798,15 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -1850,7 +1853,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1864,27 +1867,27 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="E1" s="65" t="s">
+      <c r="B1" s="68"/>
+      <c r="E1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1910,11 +1913,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="56" t="s">
         <v>40</v>
       </c>
       <c r="E3" t="s">
@@ -1936,11 +1939,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E4" t="s">
@@ -1950,11 +1953,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="56" t="s">
         <v>201</v>
       </c>
       <c r="E5" t="s">
@@ -1984,27 +1987,27 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
         <v>9</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -2066,7 +2069,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -2084,7 +2087,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -2102,7 +2105,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -2120,7 +2123,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -2138,33 +2141,33 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="67" t="s">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -2190,12 +2193,12 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
         <v>56</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
         <v>56</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
         <v>56</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
         <v>56</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="53" t="s">
         <v>56</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
         <v>56</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="53" t="s">
         <v>56</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="53" t="s">
         <v>56</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="53" t="s">
         <v>56</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
         <v>56</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
         <v>56</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="53" t="s">
         <v>56</v>
       </c>
@@ -2470,7 +2473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
         <v>56</v>
       </c>
@@ -2491,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
         <v>56</v>
       </c>
@@ -2512,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
         <v>56</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
         <v>56</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
         <v>56</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="53" t="s">
         <v>56</v>
       </c>
@@ -2596,7 +2599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="53" t="s">
         <v>56</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="53" t="s">
         <v>56</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="53" t="s">
         <v>56</v>
       </c>
@@ -2659,7 +2662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="53" t="s">
         <v>56</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
         <v>56</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="53" t="s">
         <v>56</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="53" t="s">
         <v>56</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="53" t="s">
         <v>56</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
         <v>56</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
         <v>56</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="53" t="s">
         <v>56</v>
       </c>
@@ -2827,7 +2830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="53" t="s">
         <v>56</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="53" t="s">
         <v>56</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="53" t="s">
         <v>56</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="53" t="s">
         <v>56</v>
       </c>
@@ -2911,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="53" t="s">
         <v>56</v>
       </c>
@@ -2932,7 +2935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="53" t="s">
         <v>56</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="53" t="s">
         <v>56</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="53" t="s">
         <v>56</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="53" t="s">
         <v>56</v>
       </c>
@@ -3016,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="53" t="s">
         <v>56</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="53" t="s">
         <v>56</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="53" t="s">
         <v>56</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="53" t="s">
         <v>56</v>
       </c>
@@ -3100,7 +3103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="53" t="s">
         <v>56</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="53" t="s">
         <v>56</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="53" t="s">
         <v>56</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="53" t="s">
         <v>56</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="53" t="s">
         <v>56</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="53" t="s">
         <v>56</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="53" t="s">
         <v>56</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="53" t="s">
         <v>56</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="53" t="s">
         <v>56</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="53" t="s">
         <v>56</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="53" t="s">
         <v>56</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="53" t="s">
         <v>56</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="53" t="s">
         <v>56</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="53" t="s">
         <v>56</v>
       </c>
@@ -3396,7 +3399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="53" t="s">
         <v>56</v>
       </c>
@@ -3417,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="53" t="s">
         <v>56</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="53" t="s">
         <v>56</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="53" t="s">
         <v>56</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="53" t="s">
         <v>56</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="53" t="s">
         <v>56</v>
       </c>
@@ -3522,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="53" t="s">
         <v>56</v>
       </c>
@@ -3543,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="53" t="s">
         <v>56</v>
       </c>
@@ -3564,7 +3567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="53" t="s">
         <v>56</v>
       </c>
@@ -3585,7 +3588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="53" t="s">
         <v>56</v>
       </c>
@@ -3606,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="53" t="s">
         <v>56</v>
       </c>
@@ -3627,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="53" t="s">
         <v>56</v>
       </c>
@@ -3648,7 +3651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="53" t="s">
         <v>56</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="53" t="s">
         <v>56</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="53" t="s">
         <v>56</v>
       </c>
@@ -3711,7 +3714,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="53" t="s">
         <v>56</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="53" t="s">
         <v>56</v>
       </c>
@@ -3753,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="53" t="s">
         <v>56</v>
       </c>
@@ -3774,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="53" t="s">
         <v>56</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="53" t="s">
         <v>56</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="53" t="s">
         <v>56</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="53" t="s">
         <v>56</v>
       </c>
@@ -3858,7 +3861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="53" t="s">
         <v>56</v>
       </c>
@@ -3879,7 +3882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="53" t="s">
         <v>56</v>
       </c>
@@ -3900,7 +3903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="53" t="s">
         <v>56</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="53" t="s">
         <v>56</v>
       </c>
@@ -3942,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="53" t="s">
         <v>56</v>
       </c>
@@ -3963,7 +3966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="53" t="s">
         <v>56</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="53" t="s">
         <v>56</v>
       </c>
@@ -4005,7 +4008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="53" t="s">
         <v>56</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="53" t="s">
         <v>56</v>
       </c>
@@ -4047,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="53" t="s">
         <v>56</v>
       </c>
@@ -4068,7 +4071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="53" t="s">
         <v>56</v>
       </c>
@@ -4089,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="53" t="s">
         <v>56</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="53" t="s">
         <v>56</v>
       </c>
@@ -4131,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="53" t="s">
         <v>56</v>
       </c>
@@ -4152,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="53" t="s">
         <v>56</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="53" t="s">
         <v>56</v>
       </c>
@@ -4194,7 +4197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="53" t="s">
         <v>56</v>
       </c>
@@ -4215,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="53" t="s">
         <v>56</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="53" t="s">
         <v>56</v>
       </c>
@@ -4257,7 +4260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="53" t="s">
         <v>56</v>
       </c>
@@ -4278,7 +4281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="53" t="s">
         <v>56</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="53" t="s">
         <v>56</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="53" t="s">
         <v>56</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="53" t="s">
         <v>56</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="53" t="s">
         <v>56</v>
       </c>
@@ -4383,7 +4386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="53" t="s">
         <v>185</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="53" t="s">
         <v>185</v>
       </c>
@@ -4425,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="53" t="s">
         <v>185</v>
       </c>
@@ -4446,7 +4449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="53" t="s">
         <v>185</v>
       </c>
@@ -4467,7 +4470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="53" t="s">
         <v>185</v>
       </c>
@@ -4488,7 +4491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="53" t="s">
         <v>185</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="53" t="s">
         <v>185</v>
       </c>
@@ -4530,7 +4533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="53" t="s">
         <v>185</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="53" t="s">
         <v>185</v>
       </c>
@@ -4572,7 +4575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="53" t="s">
         <v>185</v>
       </c>
@@ -4593,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="53" t="s">
         <v>185</v>
       </c>
@@ -4614,7 +4617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="53" t="s">
         <v>185</v>
       </c>
@@ -4635,7 +4638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="53" t="s">
         <v>185</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="53" t="s">
         <v>185</v>
       </c>
@@ -4677,7 +4680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="53" t="s">
         <v>185</v>
       </c>
@@ -4698,7 +4701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="53" t="s">
         <v>185</v>
       </c>
@@ -4719,7 +4722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="53" t="s">
         <v>185</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="53" t="s">
         <v>185</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="53" t="s">
         <v>185</v>
       </c>
@@ -4782,7 +4785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="53" t="s">
         <v>185</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="53" t="s">
         <v>185</v>
       </c>
@@ -4824,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="53" t="s">
         <v>185</v>
       </c>
@@ -4845,7 +4848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="53" t="s">
         <v>185</v>
       </c>
@@ -4866,7 +4869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="53" t="s">
         <v>185</v>
       </c>
@@ -4887,7 +4890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="17"/>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
@@ -4896,7 +4899,7 @@
       <c r="F129" s="17"/>
       <c r="G129" s="17"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="17"/>
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
@@ -4905,7 +4908,7 @@
       <c r="F130" s="17"/>
       <c r="G130" s="17"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="17"/>
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
@@ -4914,7 +4917,7 @@
       <c r="F131" s="17"/>
       <c r="G131" s="17"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="17"/>
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
@@ -4923,7 +4926,7 @@
       <c r="F132" s="17"/>
       <c r="G132" s="17"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="17"/>
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
@@ -4932,7 +4935,7 @@
       <c r="F133" s="17"/>
       <c r="G133" s="17"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
@@ -4941,7 +4944,7 @@
       <c r="F134" s="17"/>
       <c r="G134" s="17"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="17"/>
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
@@ -4950,7 +4953,7 @@
       <c r="F135" s="17"/>
       <c r="G135" s="17"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="17"/>
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
@@ -4959,7 +4962,7 @@
       <c r="F136" s="17"/>
       <c r="G136" s="17"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="17"/>
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
@@ -4968,7 +4971,7 @@
       <c r="F137" s="17"/>
       <c r="G137" s="17"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="17"/>
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
@@ -4977,7 +4980,7 @@
       <c r="F138" s="17"/>
       <c r="G138" s="17"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="17"/>
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
@@ -4986,7 +4989,7 @@
       <c r="F139" s="17"/>
       <c r="G139" s="17"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="17"/>
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
@@ -4995,7 +4998,7 @@
       <c r="F140" s="17"/>
       <c r="G140" s="17"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
@@ -5004,7 +5007,7 @@
       <c r="F141" s="17"/>
       <c r="G141" s="17"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="17"/>
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
@@ -5013,7 +5016,7 @@
       <c r="F142" s="17"/>
       <c r="G142" s="17"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="17"/>
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
@@ -5022,7 +5025,7 @@
       <c r="F143" s="17"/>
       <c r="G143" s="17"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="17"/>
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
@@ -5031,7 +5034,7 @@
       <c r="F144" s="17"/>
       <c r="G144" s="17"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="17"/>
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
@@ -5040,7 +5043,7 @@
       <c r="F145" s="17"/>
       <c r="G145" s="17"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="17"/>
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
@@ -5049,7 +5052,7 @@
       <c r="F146" s="17"/>
       <c r="G146" s="17"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="17"/>
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
@@ -5058,7 +5061,7 @@
       <c r="F147" s="17"/>
       <c r="G147" s="17"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="17"/>
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
@@ -5067,7 +5070,7 @@
       <c r="F148" s="17"/>
       <c r="G148" s="17"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="17"/>
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
@@ -5076,7 +5079,7 @@
       <c r="F149" s="17"/>
       <c r="G149" s="17"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="17"/>
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
@@ -5085,7 +5088,7 @@
       <c r="F150" s="17"/>
       <c r="G150" s="17"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="17"/>
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
@@ -5094,7 +5097,7 @@
       <c r="F151" s="17"/>
       <c r="G151" s="17"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="17"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -5103,7 +5106,7 @@
       <c r="F152" s="17"/>
       <c r="G152" s="17"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="17"/>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
@@ -5112,7 +5115,7 @@
       <c r="F153" s="17"/>
       <c r="G153" s="17"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="17"/>
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
@@ -5121,7 +5124,7 @@
       <c r="F154" s="17"/>
       <c r="G154" s="17"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
@@ -5130,7 +5133,7 @@
       <c r="F155" s="17"/>
       <c r="G155" s="17"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="17"/>
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
@@ -5139,7 +5142,7 @@
       <c r="F156" s="17"/>
       <c r="G156" s="17"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="17"/>
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
@@ -5148,7 +5151,7 @@
       <c r="F157" s="17"/>
       <c r="G157" s="17"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="17"/>
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
@@ -5157,7 +5160,7 @@
       <c r="F158" s="17"/>
       <c r="G158" s="17"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="17"/>
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
@@ -5166,7 +5169,7 @@
       <c r="F159" s="17"/>
       <c r="G159" s="17"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="17"/>
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
@@ -5175,7 +5178,7 @@
       <c r="F160" s="17"/>
       <c r="G160" s="17"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="17"/>
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
@@ -5184,7 +5187,7 @@
       <c r="F161" s="17"/>
       <c r="G161" s="17"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="17"/>
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
@@ -5193,7 +5196,7 @@
       <c r="F162" s="17"/>
       <c r="G162" s="17"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="17"/>
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
@@ -5202,7 +5205,7 @@
       <c r="F163" s="17"/>
       <c r="G163" s="17"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="17"/>
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
@@ -5211,7 +5214,7 @@
       <c r="F164" s="17"/>
       <c r="G164" s="17"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="17"/>
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
@@ -5220,7 +5223,7 @@
       <c r="F165" s="17"/>
       <c r="G165" s="17"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="17"/>
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
@@ -5229,7 +5232,7 @@
       <c r="F166" s="17"/>
       <c r="G166" s="17"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="17"/>
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
@@ -5238,7 +5241,7 @@
       <c r="F167" s="17"/>
       <c r="G167" s="17"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="17"/>
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
@@ -5247,7 +5250,7 @@
       <c r="F168" s="17"/>
       <c r="G168" s="17"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="17"/>
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
@@ -5256,7 +5259,7 @@
       <c r="F169" s="17"/>
       <c r="G169" s="17"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="17"/>
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
@@ -5265,7 +5268,7 @@
       <c r="F170" s="17"/>
       <c r="G170" s="17"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="17"/>
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
@@ -5274,7 +5277,7 @@
       <c r="F171" s="17"/>
       <c r="G171" s="17"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="17"/>
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
@@ -5283,7 +5286,7 @@
       <c r="F172" s="17"/>
       <c r="G172" s="17"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="17"/>
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
@@ -5292,7 +5295,7 @@
       <c r="F173" s="17"/>
       <c r="G173" s="17"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="17"/>
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
@@ -5301,7 +5304,7 @@
       <c r="F174" s="17"/>
       <c r="G174" s="17"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="17"/>
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
@@ -5310,7 +5313,7 @@
       <c r="F175" s="17"/>
       <c r="G175" s="17"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="17"/>
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
@@ -5319,7 +5322,7 @@
       <c r="F176" s="17"/>
       <c r="G176" s="17"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="17"/>
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
@@ -5328,7 +5331,7 @@
       <c r="F177" s="17"/>
       <c r="G177" s="17"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="17"/>
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
@@ -5337,7 +5340,7 @@
       <c r="F178" s="17"/>
       <c r="G178" s="17"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="17"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
@@ -5346,7 +5349,7 @@
       <c r="F179" s="17"/>
       <c r="G179" s="17"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="17"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
@@ -5355,7 +5358,7 @@
       <c r="F180" s="17"/>
       <c r="G180" s="17"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="17"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
@@ -5364,7 +5367,7 @@
       <c r="F181" s="17"/>
       <c r="G181" s="17"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="17"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
@@ -5373,7 +5376,7 @@
       <c r="F182" s="17"/>
       <c r="G182" s="17"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="17"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
@@ -5382,7 +5385,7 @@
       <c r="F183" s="17"/>
       <c r="G183" s="17"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="17"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
@@ -5391,7 +5394,7 @@
       <c r="F184" s="17"/>
       <c r="G184" s="17"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="17"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
@@ -5400,7 +5403,7 @@
       <c r="F185" s="17"/>
       <c r="G185" s="17"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="17"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
@@ -5409,7 +5412,7 @@
       <c r="F186" s="17"/>
       <c r="G186" s="17"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="17"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
@@ -5418,7 +5421,7 @@
       <c r="F187" s="17"/>
       <c r="G187" s="17"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="17"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
@@ -5427,7 +5430,7 @@
       <c r="F188" s="17"/>
       <c r="G188" s="17"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="17"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
@@ -5436,7 +5439,7 @@
       <c r="F189" s="17"/>
       <c r="G189" s="17"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="17"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
@@ -5445,7 +5448,7 @@
       <c r="F190" s="17"/>
       <c r="G190" s="17"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="17"/>
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
@@ -5454,7 +5457,7 @@
       <c r="F191" s="17"/>
       <c r="G191" s="17"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="17"/>
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
@@ -5463,7 +5466,7 @@
       <c r="F192" s="17"/>
       <c r="G192" s="17"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="17"/>
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
@@ -5472,7 +5475,7 @@
       <c r="F193" s="17"/>
       <c r="G193" s="17"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="17"/>
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
@@ -5481,7 +5484,7 @@
       <c r="F194" s="17"/>
       <c r="G194" s="17"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="17"/>
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
@@ -5490,7 +5493,7 @@
       <c r="F195" s="17"/>
       <c r="G195" s="17"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="17"/>
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
@@ -5499,7 +5502,7 @@
       <c r="F196" s="17"/>
       <c r="G196" s="17"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="17"/>
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
@@ -5508,7 +5511,7 @@
       <c r="F197" s="17"/>
       <c r="G197" s="17"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="17"/>
       <c r="B198" s="17"/>
       <c r="C198" s="17"/>
@@ -5517,7 +5520,7 @@
       <c r="F198" s="17"/>
       <c r="G198" s="17"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="17"/>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
@@ -5526,7 +5529,7 @@
       <c r="F199" s="17"/>
       <c r="G199" s="17"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="17"/>
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
@@ -5535,7 +5538,7 @@
       <c r="F200" s="17"/>
       <c r="G200" s="17"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="17"/>
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
@@ -5544,7 +5547,7 @@
       <c r="F201" s="17"/>
       <c r="G201" s="17"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="17"/>
       <c r="B202" s="17"/>
       <c r="C202" s="17"/>
@@ -5553,7 +5556,7 @@
       <c r="F202" s="17"/>
       <c r="G202" s="17"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="17"/>
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
@@ -5562,7 +5565,7 @@
       <c r="F203" s="17"/>
       <c r="G203" s="17"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="17"/>
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
@@ -5571,7 +5574,7 @@
       <c r="F204" s="17"/>
       <c r="G204" s="17"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="17"/>
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
@@ -5580,7 +5583,7 @@
       <c r="F205" s="17"/>
       <c r="G205" s="17"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="17"/>
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
@@ -5589,7 +5592,7 @@
       <c r="F206" s="17"/>
       <c r="G206" s="17"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="17"/>
       <c r="B207" s="17"/>
       <c r="C207" s="17"/>
@@ -5598,7 +5601,7 @@
       <c r="F207" s="17"/>
       <c r="G207" s="17"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="17"/>
       <c r="B208" s="17"/>
       <c r="C208" s="17"/>
@@ -5607,7 +5610,7 @@
       <c r="F208" s="17"/>
       <c r="G208" s="17"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="17"/>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
@@ -5616,7 +5619,7 @@
       <c r="F209" s="17"/>
       <c r="G209" s="17"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="17"/>
       <c r="B210" s="17"/>
       <c r="C210" s="17"/>
@@ -5625,7 +5628,7 @@
       <c r="F210" s="17"/>
       <c r="G210" s="17"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="17"/>
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
@@ -5634,7 +5637,7 @@
       <c r="F211" s="17"/>
       <c r="G211" s="17"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="17"/>
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
@@ -5643,7 +5646,7 @@
       <c r="F212" s="17"/>
       <c r="G212" s="17"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="17"/>
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
@@ -5652,7 +5655,7 @@
       <c r="F213" s="17"/>
       <c r="G213" s="17"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="17"/>
       <c r="B214" s="17"/>
       <c r="C214" s="17"/>
@@ -5661,7 +5664,7 @@
       <c r="F214" s="17"/>
       <c r="G214" s="17"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="17"/>
       <c r="B215" s="17"/>
       <c r="C215" s="17"/>
@@ -5670,7 +5673,7 @@
       <c r="F215" s="17"/>
       <c r="G215" s="17"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="17"/>
       <c r="B216" s="17"/>
       <c r="C216" s="17"/>
@@ -5679,7 +5682,7 @@
       <c r="F216" s="17"/>
       <c r="G216" s="17"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="17"/>
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
@@ -5688,7 +5691,7 @@
       <c r="F217" s="17"/>
       <c r="G217" s="17"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="17"/>
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
@@ -5697,7 +5700,7 @@
       <c r="F218" s="17"/>
       <c r="G218" s="17"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="17"/>
       <c r="B219" s="17"/>
       <c r="C219" s="17"/>
@@ -5706,7 +5709,7 @@
       <c r="F219" s="17"/>
       <c r="G219" s="17"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="17"/>
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
@@ -5715,7 +5718,7 @@
       <c r="F220" s="17"/>
       <c r="G220" s="17"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="17"/>
       <c r="B221" s="17"/>
       <c r="C221" s="17"/>
@@ -5724,7 +5727,7 @@
       <c r="F221" s="17"/>
       <c r="G221" s="17"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="17"/>
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
@@ -5733,7 +5736,7 @@
       <c r="F222" s="17"/>
       <c r="G222" s="17"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="17"/>
       <c r="B223" s="17"/>
       <c r="C223" s="17"/>
@@ -5742,7 +5745,7 @@
       <c r="F223" s="17"/>
       <c r="G223" s="17"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="17"/>
       <c r="B224" s="17"/>
       <c r="C224" s="17"/>
@@ -5751,7 +5754,7 @@
       <c r="F224" s="17"/>
       <c r="G224" s="17"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="17"/>
       <c r="B225" s="17"/>
       <c r="C225" s="17"/>
@@ -5760,7 +5763,7 @@
       <c r="F225" s="17"/>
       <c r="G225" s="17"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="17"/>
       <c r="B226" s="17"/>
       <c r="C226" s="17"/>
@@ -5769,7 +5772,7 @@
       <c r="F226" s="17"/>
       <c r="G226" s="17"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="17"/>
       <c r="B227" s="17"/>
       <c r="C227" s="17"/>
@@ -5778,7 +5781,7 @@
       <c r="F227" s="17"/>
       <c r="G227" s="17"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="17"/>
       <c r="B228" s="17"/>
       <c r="C228" s="17"/>
@@ -5787,7 +5790,7 @@
       <c r="F228" s="17"/>
       <c r="G228" s="17"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="17"/>
       <c r="B229" s="17"/>
       <c r="C229" s="17"/>
@@ -5796,7 +5799,7 @@
       <c r="F229" s="17"/>
       <c r="G229" s="17"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="17"/>
       <c r="B230" s="17"/>
       <c r="C230" s="17"/>
@@ -5805,7 +5808,7 @@
       <c r="F230" s="17"/>
       <c r="G230" s="17"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="17"/>
       <c r="B231" s="17"/>
       <c r="C231" s="17"/>
@@ -5814,7 +5817,7 @@
       <c r="F231" s="17"/>
       <c r="G231" s="17"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="17"/>
       <c r="B232" s="17"/>
       <c r="C232" s="17"/>
@@ -5823,7 +5826,7 @@
       <c r="F232" s="17"/>
       <c r="G232" s="17"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="17"/>
       <c r="B233" s="17"/>
       <c r="C233" s="17"/>
@@ -5832,7 +5835,7 @@
       <c r="F233" s="17"/>
       <c r="G233" s="17"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="17"/>
       <c r="B234" s="17"/>
       <c r="C234" s="17"/>
@@ -5841,7 +5844,7 @@
       <c r="F234" s="17"/>
       <c r="G234" s="17"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="17"/>
       <c r="B235" s="17"/>
       <c r="C235" s="17"/>
@@ -5850,7 +5853,7 @@
       <c r="F235" s="17"/>
       <c r="G235" s="17"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="17"/>
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
@@ -5859,7 +5862,7 @@
       <c r="F236" s="17"/>
       <c r="G236" s="17"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="17"/>
       <c r="B237" s="17"/>
       <c r="C237" s="17"/>
@@ -5868,7 +5871,7 @@
       <c r="F237" s="17"/>
       <c r="G237" s="17"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="17"/>
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
@@ -5877,7 +5880,7 @@
       <c r="F238" s="17"/>
       <c r="G238" s="17"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="17"/>
       <c r="B239" s="17"/>
       <c r="C239" s="17"/>
@@ -5886,7 +5889,7 @@
       <c r="F239" s="17"/>
       <c r="G239" s="17"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="17"/>
       <c r="B240" s="17"/>
       <c r="C240" s="17"/>
@@ -5895,7 +5898,7 @@
       <c r="F240" s="17"/>
       <c r="G240" s="17"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="17"/>
       <c r="B241" s="17"/>
       <c r="C241" s="17"/>
@@ -5904,7 +5907,7 @@
       <c r="F241" s="17"/>
       <c r="G241" s="17"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="17"/>
       <c r="B242" s="17"/>
       <c r="C242" s="17"/>
@@ -5913,7 +5916,7 @@
       <c r="F242" s="17"/>
       <c r="G242" s="17"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="17"/>
       <c r="B243" s="17"/>
       <c r="C243" s="17"/>
@@ -5922,7 +5925,7 @@
       <c r="F243" s="17"/>
       <c r="G243" s="17"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="17"/>
       <c r="B244" s="17"/>
       <c r="C244" s="17"/>
@@ -5931,7 +5934,7 @@
       <c r="F244" s="17"/>
       <c r="G244" s="17"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="17"/>
       <c r="B245" s="17"/>
       <c r="C245" s="17"/>
@@ -5940,7 +5943,7 @@
       <c r="F245" s="17"/>
       <c r="G245" s="17"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="17"/>
       <c r="B246" s="17"/>
       <c r="C246" s="17"/>
@@ -5949,7 +5952,7 @@
       <c r="F246" s="17"/>
       <c r="G246" s="17"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="17"/>
       <c r="B247" s="17"/>
       <c r="C247" s="17"/>
@@ -5958,7 +5961,7 @@
       <c r="F247" s="17"/>
       <c r="G247" s="17"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="17"/>
       <c r="B248" s="17"/>
       <c r="C248" s="17"/>
@@ -5967,7 +5970,7 @@
       <c r="F248" s="17"/>
       <c r="G248" s="17"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="17"/>
       <c r="B249" s="17"/>
       <c r="C249" s="17"/>
@@ -5976,7 +5979,7 @@
       <c r="F249" s="17"/>
       <c r="G249" s="17"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="17"/>
       <c r="B250" s="17"/>
       <c r="C250" s="17"/>
@@ -5985,7 +5988,7 @@
       <c r="F250" s="17"/>
       <c r="G250" s="17"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="17"/>
       <c r="B251" s="17"/>
       <c r="C251" s="17"/>
@@ -5994,7 +5997,7 @@
       <c r="F251" s="17"/>
       <c r="G251" s="17"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="17"/>
       <c r="B252" s="17"/>
       <c r="C252" s="17"/>
@@ -6003,7 +6006,7 @@
       <c r="F252" s="17"/>
       <c r="G252" s="17"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="17"/>
       <c r="B253" s="17"/>
       <c r="C253" s="17"/>
@@ -6012,7 +6015,7 @@
       <c r="F253" s="17"/>
       <c r="G253" s="17"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="17"/>
       <c r="B254" s="17"/>
       <c r="C254" s="17"/>
@@ -6021,7 +6024,7 @@
       <c r="F254" s="17"/>
       <c r="G254" s="17"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="17"/>
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
@@ -6030,7 +6033,7 @@
       <c r="F255" s="17"/>
       <c r="G255" s="17"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="17"/>
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
@@ -6039,7 +6042,7 @@
       <c r="F256" s="17"/>
       <c r="G256" s="17"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="17"/>
       <c r="B257" s="17"/>
       <c r="C257" s="17"/>
@@ -6048,7 +6051,7 @@
       <c r="F257" s="17"/>
       <c r="G257" s="17"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="17"/>
       <c r="B258" s="17"/>
       <c r="C258" s="17"/>
@@ -6057,7 +6060,7 @@
       <c r="F258" s="17"/>
       <c r="G258" s="17"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="17"/>
       <c r="B259" s="17"/>
       <c r="C259" s="17"/>
@@ -6066,7 +6069,7 @@
       <c r="F259" s="17"/>
       <c r="G259" s="17"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="17"/>
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
@@ -6075,7 +6078,7 @@
       <c r="F260" s="17"/>
       <c r="G260" s="17"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="17"/>
       <c r="B261" s="17"/>
       <c r="C261" s="17"/>
@@ -6084,7 +6087,7 @@
       <c r="F261" s="17"/>
       <c r="G261" s="17"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="17"/>
       <c r="B262" s="17"/>
       <c r="C262" s="17"/>
@@ -6093,7 +6096,7 @@
       <c r="F262" s="17"/>
       <c r="G262" s="17"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="17"/>
       <c r="B263" s="17"/>
       <c r="C263" s="17"/>
@@ -6102,7 +6105,7 @@
       <c r="F263" s="17"/>
       <c r="G263" s="17"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="17"/>
       <c r="B264" s="17"/>
       <c r="C264" s="17"/>
@@ -6111,7 +6114,7 @@
       <c r="F264" s="17"/>
       <c r="G264" s="17"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="17"/>
       <c r="B265" s="17"/>
       <c r="C265" s="17"/>
@@ -6120,7 +6123,7 @@
       <c r="F265" s="17"/>
       <c r="G265" s="17"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="17"/>
       <c r="B266" s="17"/>
       <c r="C266" s="17"/>
@@ -6129,7 +6132,7 @@
       <c r="F266" s="17"/>
       <c r="G266" s="17"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="17"/>
       <c r="B267" s="17"/>
       <c r="C267" s="17"/>
@@ -6138,7 +6141,7 @@
       <c r="F267" s="17"/>
       <c r="G267" s="17"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="17"/>
       <c r="B268" s="17"/>
       <c r="C268" s="17"/>
@@ -6147,7 +6150,7 @@
       <c r="F268" s="17"/>
       <c r="G268" s="17"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="17"/>
       <c r="B269" s="17"/>
       <c r="C269" s="17"/>
@@ -6156,7 +6159,7 @@
       <c r="F269" s="17"/>
       <c r="G269" s="17"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="17"/>
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
@@ -6165,7 +6168,7 @@
       <c r="F270" s="17"/>
       <c r="G270" s="17"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="17"/>
       <c r="B271" s="17"/>
       <c r="C271" s="17"/>
@@ -6174,7 +6177,7 @@
       <c r="F271" s="17"/>
       <c r="G271" s="17"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="17"/>
       <c r="B272" s="17"/>
       <c r="C272" s="17"/>
@@ -6183,7 +6186,7 @@
       <c r="F272" s="17"/>
       <c r="G272" s="17"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="17"/>
       <c r="B273" s="17"/>
       <c r="C273" s="17"/>
@@ -6192,7 +6195,7 @@
       <c r="F273" s="17"/>
       <c r="G273" s="17"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="17"/>
       <c r="B274" s="17"/>
       <c r="C274" s="17"/>
@@ -6201,7 +6204,7 @@
       <c r="F274" s="17"/>
       <c r="G274" s="17"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="17"/>
       <c r="B275" s="17"/>
       <c r="C275" s="17"/>
@@ -6210,7 +6213,7 @@
       <c r="F275" s="17"/>
       <c r="G275" s="17"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="17"/>
       <c r="B276" s="17"/>
       <c r="C276" s="17"/>
@@ -6219,7 +6222,7 @@
       <c r="F276" s="17"/>
       <c r="G276" s="17"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="17"/>
       <c r="B277" s="17"/>
       <c r="C277" s="17"/>
@@ -6228,7 +6231,7 @@
       <c r="F277" s="17"/>
       <c r="G277" s="17"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="17"/>
       <c r="B278" s="17"/>
       <c r="C278" s="17"/>
@@ -6237,7 +6240,7 @@
       <c r="F278" s="17"/>
       <c r="G278" s="17"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="17"/>
       <c r="B279" s="17"/>
       <c r="C279" s="17"/>
@@ -6246,7 +6249,7 @@
       <c r="F279" s="17"/>
       <c r="G279" s="17"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="17"/>
       <c r="B280" s="17"/>
       <c r="C280" s="17"/>
@@ -6255,7 +6258,7 @@
       <c r="F280" s="17"/>
       <c r="G280" s="17"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="17"/>
       <c r="B281" s="17"/>
       <c r="C281" s="17"/>
@@ -6264,7 +6267,7 @@
       <c r="F281" s="17"/>
       <c r="G281" s="17"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="17"/>
       <c r="B282" s="17"/>
       <c r="C282" s="17"/>
@@ -6273,7 +6276,7 @@
       <c r="F282" s="17"/>
       <c r="G282" s="17"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="17"/>
       <c r="B283" s="17"/>
       <c r="C283" s="17"/>
@@ -6282,7 +6285,7 @@
       <c r="F283" s="17"/>
       <c r="G283" s="17"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="17"/>
       <c r="B284" s="17"/>
       <c r="C284" s="17"/>
@@ -6291,7 +6294,7 @@
       <c r="F284" s="17"/>
       <c r="G284" s="17"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="17"/>
       <c r="B285" s="17"/>
       <c r="C285" s="17"/>
@@ -6300,7 +6303,7 @@
       <c r="F285" s="17"/>
       <c r="G285" s="17"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="17"/>
       <c r="B286" s="17"/>
       <c r="C286" s="17"/>
@@ -6309,7 +6312,7 @@
       <c r="F286" s="17"/>
       <c r="G286" s="17"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="17"/>
       <c r="B287" s="17"/>
       <c r="C287" s="17"/>
@@ -6318,7 +6321,7 @@
       <c r="F287" s="17"/>
       <c r="G287" s="17"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="17"/>
       <c r="B288" s="17"/>
       <c r="C288" s="17"/>
@@ -6327,7 +6330,7 @@
       <c r="F288" s="17"/>
       <c r="G288" s="17"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="17"/>
       <c r="B289" s="17"/>
       <c r="C289" s="17"/>
@@ -6336,7 +6339,7 @@
       <c r="F289" s="17"/>
       <c r="G289" s="17"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="17"/>
       <c r="B290" s="17"/>
       <c r="C290" s="17"/>
@@ -6345,7 +6348,7 @@
       <c r="F290" s="17"/>
       <c r="G290" s="17"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="17"/>
       <c r="B291" s="17"/>
       <c r="C291" s="17"/>
@@ -6354,7 +6357,7 @@
       <c r="F291" s="17"/>
       <c r="G291" s="17"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="17"/>
       <c r="B292" s="17"/>
       <c r="C292" s="17"/>
@@ -6363,7 +6366,7 @@
       <c r="F292" s="17"/>
       <c r="G292" s="17"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="17"/>
       <c r="B293" s="17"/>
       <c r="C293" s="17"/>
@@ -6372,7 +6375,7 @@
       <c r="F293" s="17"/>
       <c r="G293" s="17"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="17"/>
       <c r="B294" s="17"/>
       <c r="C294" s="17"/>
@@ -6381,7 +6384,7 @@
       <c r="F294" s="17"/>
       <c r="G294" s="17"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="17"/>
       <c r="B295" s="17"/>
       <c r="C295" s="17"/>
@@ -6390,7 +6393,7 @@
       <c r="F295" s="17"/>
       <c r="G295" s="17"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="17"/>
       <c r="B296" s="17"/>
       <c r="C296" s="17"/>
@@ -6399,7 +6402,7 @@
       <c r="F296" s="17"/>
       <c r="G296" s="17"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="17"/>
       <c r="B297" s="17"/>
       <c r="C297" s="17"/>
@@ -6408,7 +6411,7 @@
       <c r="F297" s="17"/>
       <c r="G297" s="17"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="17"/>
       <c r="B298" s="17"/>
       <c r="C298" s="17"/>
@@ -6417,7 +6420,7 @@
       <c r="F298" s="17"/>
       <c r="G298" s="17"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="17"/>
       <c r="B299" s="17"/>
       <c r="C299" s="17"/>
@@ -6426,7 +6429,7 @@
       <c r="F299" s="17"/>
       <c r="G299" s="17"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="17"/>
       <c r="B300" s="17"/>
       <c r="C300" s="17"/>
@@ -6435,7 +6438,7 @@
       <c r="F300" s="17"/>
       <c r="G300" s="17"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="17"/>
       <c r="B301" s="17"/>
       <c r="C301" s="17"/>
@@ -6444,7 +6447,7 @@
       <c r="F301" s="17"/>
       <c r="G301" s="17"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="17"/>
       <c r="B302" s="17"/>
       <c r="C302" s="17"/>
@@ -6453,7 +6456,7 @@
       <c r="F302" s="17"/>
       <c r="G302" s="17"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="17"/>
       <c r="B303" s="17"/>
       <c r="C303" s="17"/>
@@ -6462,7 +6465,7 @@
       <c r="F303" s="17"/>
       <c r="G303" s="17"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="17"/>
       <c r="B304" s="17"/>
       <c r="C304" s="17"/>
@@ -6471,7 +6474,7 @@
       <c r="F304" s="17"/>
       <c r="G304" s="17"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="17"/>
       <c r="B305" s="17"/>
       <c r="C305" s="17"/>
@@ -6480,7 +6483,7 @@
       <c r="F305" s="17"/>
       <c r="G305" s="17"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="17"/>
       <c r="B306" s="17"/>
       <c r="C306" s="17"/>
@@ -6489,7 +6492,7 @@
       <c r="F306" s="17"/>
       <c r="G306" s="17"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="17"/>
       <c r="B307" s="17"/>
       <c r="C307" s="17"/>
@@ -6498,7 +6501,7 @@
       <c r="F307" s="17"/>
       <c r="G307" s="17"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="17"/>
       <c r="B308" s="17"/>
       <c r="C308" s="17"/>
@@ -6507,7 +6510,7 @@
       <c r="F308" s="17"/>
       <c r="G308" s="17"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="17"/>
       <c r="B309" s="17"/>
       <c r="C309" s="17"/>
@@ -6516,7 +6519,7 @@
       <c r="F309" s="17"/>
       <c r="G309" s="17"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="17"/>
       <c r="B310" s="17"/>
       <c r="C310" s="17"/>
@@ -6525,7 +6528,7 @@
       <c r="F310" s="17"/>
       <c r="G310" s="17"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="17"/>
       <c r="B311" s="17"/>
       <c r="C311" s="17"/>
@@ -6534,7 +6537,7 @@
       <c r="F311" s="17"/>
       <c r="G311" s="17"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="17"/>
       <c r="B312" s="17"/>
       <c r="C312" s="17"/>
@@ -6543,7 +6546,7 @@
       <c r="F312" s="17"/>
       <c r="G312" s="17"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="17"/>
       <c r="B313" s="17"/>
       <c r="C313" s="17"/>
@@ -6552,7 +6555,7 @@
       <c r="F313" s="17"/>
       <c r="G313" s="17"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="17"/>
       <c r="B314" s="17"/>
       <c r="C314" s="17"/>
@@ -6561,7 +6564,7 @@
       <c r="F314" s="17"/>
       <c r="G314" s="17"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="17"/>
       <c r="B315" s="17"/>
       <c r="C315" s="17"/>
@@ -6570,7 +6573,7 @@
       <c r="F315" s="17"/>
       <c r="G315" s="17"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="17"/>
       <c r="B316" s="17"/>
       <c r="C316" s="17"/>
@@ -6579,7 +6582,7 @@
       <c r="F316" s="17"/>
       <c r="G316" s="17"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="17"/>
       <c r="B317" s="17"/>
       <c r="C317" s="17"/>
@@ -6588,7 +6591,7 @@
       <c r="F317" s="17"/>
       <c r="G317" s="17"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="17"/>
       <c r="B318" s="17"/>
       <c r="C318" s="17"/>
@@ -6597,7 +6600,7 @@
       <c r="F318" s="17"/>
       <c r="G318" s="17"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="17"/>
       <c r="B319" s="17"/>
       <c r="C319" s="17"/>
@@ -6606,7 +6609,7 @@
       <c r="F319" s="17"/>
       <c r="G319" s="17"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="17"/>
       <c r="B320" s="17"/>
       <c r="C320" s="17"/>
@@ -6615,7 +6618,7 @@
       <c r="F320" s="17"/>
       <c r="G320" s="17"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="17"/>
       <c r="B321" s="17"/>
       <c r="C321" s="17"/>
@@ -6624,7 +6627,7 @@
       <c r="F321" s="17"/>
       <c r="G321" s="17"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="17"/>
       <c r="B322" s="17"/>
       <c r="C322" s="17"/>
@@ -6633,7 +6636,7 @@
       <c r="F322" s="17"/>
       <c r="G322" s="17"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="17"/>
       <c r="B323" s="17"/>
       <c r="C323" s="17"/>
@@ -6642,7 +6645,7 @@
       <c r="F323" s="17"/>
       <c r="G323" s="17"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="17"/>
       <c r="B324" s="17"/>
       <c r="C324" s="17"/>
@@ -6651,7 +6654,7 @@
       <c r="F324" s="17"/>
       <c r="G324" s="17"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="17"/>
       <c r="B325" s="17"/>
       <c r="C325" s="17"/>
@@ -6660,7 +6663,7 @@
       <c r="F325" s="17"/>
       <c r="G325" s="17"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="17"/>
       <c r="B326" s="17"/>
       <c r="C326" s="17"/>
@@ -6669,7 +6672,7 @@
       <c r="F326" s="17"/>
       <c r="G326" s="17"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="17"/>
       <c r="B327" s="17"/>
       <c r="C327" s="17"/>
@@ -6678,7 +6681,7 @@
       <c r="F327" s="17"/>
       <c r="G327" s="17"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="17"/>
       <c r="B328" s="17"/>
       <c r="C328" s="17"/>
@@ -6687,7 +6690,7 @@
       <c r="F328" s="17"/>
       <c r="G328" s="17"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="17"/>
       <c r="B329" s="17"/>
       <c r="C329" s="17"/>
@@ -6696,7 +6699,7 @@
       <c r="F329" s="17"/>
       <c r="G329" s="17"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="17"/>
       <c r="B330" s="17"/>
       <c r="C330" s="17"/>
@@ -6705,7 +6708,7 @@
       <c r="F330" s="17"/>
       <c r="G330" s="17"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="17"/>
       <c r="B331" s="17"/>
       <c r="C331" s="17"/>
@@ -6714,7 +6717,7 @@
       <c r="F331" s="17"/>
       <c r="G331" s="17"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="17"/>
       <c r="B332" s="17"/>
       <c r="C332" s="17"/>
@@ -6723,7 +6726,7 @@
       <c r="F332" s="17"/>
       <c r="G332" s="17"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="17"/>
       <c r="B333" s="17"/>
       <c r="C333" s="17"/>
@@ -6732,7 +6735,7 @@
       <c r="F333" s="17"/>
       <c r="G333" s="17"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="17"/>
       <c r="B334" s="17"/>
       <c r="C334" s="17"/>
@@ -6741,7 +6744,7 @@
       <c r="F334" s="17"/>
       <c r="G334" s="17"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="17"/>
       <c r="B335" s="17"/>
       <c r="C335" s="17"/>
@@ -6750,7 +6753,7 @@
       <c r="F335" s="17"/>
       <c r="G335" s="17"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="17"/>
       <c r="B336" s="17"/>
       <c r="C336" s="17"/>
@@ -6759,7 +6762,7 @@
       <c r="F336" s="17"/>
       <c r="G336" s="17"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="17"/>
       <c r="B337" s="17"/>
       <c r="C337" s="17"/>
@@ -6768,7 +6771,7 @@
       <c r="F337" s="17"/>
       <c r="G337" s="17"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="17"/>
       <c r="B338" s="17"/>
       <c r="C338" s="17"/>
@@ -6777,7 +6780,7 @@
       <c r="F338" s="17"/>
       <c r="G338" s="17"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="17"/>
       <c r="B339" s="17"/>
       <c r="C339" s="17"/>
@@ -6786,7 +6789,7 @@
       <c r="F339" s="17"/>
       <c r="G339" s="17"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="17"/>
       <c r="B340" s="17"/>
       <c r="C340" s="17"/>
@@ -6795,7 +6798,7 @@
       <c r="F340" s="17"/>
       <c r="G340" s="17"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="17"/>
       <c r="B341" s="17"/>
       <c r="C341" s="17"/>
@@ -6804,7 +6807,7 @@
       <c r="F341" s="17"/>
       <c r="G341" s="17"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="17"/>
       <c r="B342" s="17"/>
       <c r="C342" s="17"/>
@@ -6813,7 +6816,7 @@
       <c r="F342" s="17"/>
       <c r="G342" s="17"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="17"/>
       <c r="B343" s="17"/>
       <c r="C343" s="17"/>
@@ -6822,7 +6825,7 @@
       <c r="F343" s="17"/>
       <c r="G343" s="17"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="17"/>
       <c r="B344" s="17"/>
       <c r="C344" s="17"/>
@@ -6831,7 +6834,7 @@
       <c r="F344" s="17"/>
       <c r="G344" s="17"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="17"/>
       <c r="B345" s="17"/>
       <c r="C345" s="17"/>
@@ -6840,7 +6843,7 @@
       <c r="F345" s="17"/>
       <c r="G345" s="17"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="17"/>
       <c r="B346" s="17"/>
       <c r="C346" s="17"/>
@@ -6849,7 +6852,7 @@
       <c r="F346" s="17"/>
       <c r="G346" s="17"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="17"/>
       <c r="B347" s="17"/>
       <c r="C347" s="17"/>
@@ -6858,7 +6861,7 @@
       <c r="F347" s="17"/>
       <c r="G347" s="17"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="17"/>
       <c r="B348" s="17"/>
       <c r="C348" s="17"/>
@@ -6867,7 +6870,7 @@
       <c r="F348" s="17"/>
       <c r="G348" s="17"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="17"/>
       <c r="B349" s="17"/>
       <c r="C349" s="17"/>
@@ -6876,7 +6879,7 @@
       <c r="F349" s="17"/>
       <c r="G349" s="17"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="17"/>
       <c r="B350" s="17"/>
       <c r="C350" s="17"/>
@@ -6885,7 +6888,7 @@
       <c r="F350" s="17"/>
       <c r="G350" s="17"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="17"/>
       <c r="B351" s="17"/>
       <c r="C351" s="17"/>
@@ -6894,7 +6897,7 @@
       <c r="F351" s="17"/>
       <c r="G351" s="17"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="17"/>
       <c r="B352" s="17"/>
       <c r="C352" s="17"/>
@@ -6903,7 +6906,7 @@
       <c r="F352" s="17"/>
       <c r="G352" s="17"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="17"/>
       <c r="B353" s="17"/>
       <c r="C353" s="17"/>
@@ -6912,7 +6915,7 @@
       <c r="F353" s="17"/>
       <c r="G353" s="17"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="17"/>
       <c r="B354" s="17"/>
       <c r="C354" s="17"/>
@@ -6921,7 +6924,7 @@
       <c r="F354" s="17"/>
       <c r="G354" s="17"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="17"/>
       <c r="B355" s="17"/>
       <c r="C355" s="17"/>
@@ -6930,7 +6933,7 @@
       <c r="F355" s="17"/>
       <c r="G355" s="17"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="17"/>
       <c r="B356" s="17"/>
       <c r="C356" s="17"/>
@@ -6939,7 +6942,7 @@
       <c r="F356" s="17"/>
       <c r="G356" s="17"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="17"/>
       <c r="B357" s="17"/>
       <c r="C357" s="17"/>
@@ -6948,7 +6951,7 @@
       <c r="F357" s="17"/>
       <c r="G357" s="17"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="17"/>
       <c r="B358" s="17"/>
       <c r="C358" s="17"/>
@@ -6957,7 +6960,7 @@
       <c r="F358" s="17"/>
       <c r="G358" s="17"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="17"/>
       <c r="B359" s="17"/>
       <c r="C359" s="17"/>
@@ -6966,7 +6969,7 @@
       <c r="F359" s="17"/>
       <c r="G359" s="17"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="17"/>
       <c r="B360" s="17"/>
       <c r="C360" s="17"/>
@@ -6975,7 +6978,7 @@
       <c r="F360" s="17"/>
       <c r="G360" s="17"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="17"/>
       <c r="B361" s="17"/>
       <c r="C361" s="17"/>
@@ -6984,7 +6987,7 @@
       <c r="F361" s="17"/>
       <c r="G361" s="17"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="17"/>
       <c r="B362" s="17"/>
       <c r="C362" s="17"/>
@@ -6993,7 +6996,7 @@
       <c r="F362" s="17"/>
       <c r="G362" s="17"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="17"/>
       <c r="B363" s="17"/>
       <c r="C363" s="17"/>
@@ -7002,7 +7005,7 @@
       <c r="F363" s="17"/>
       <c r="G363" s="17"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="17"/>
       <c r="B364" s="17"/>
       <c r="C364" s="17"/>
@@ -7011,7 +7014,7 @@
       <c r="F364" s="17"/>
       <c r="G364" s="17"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="17"/>
       <c r="B365" s="17"/>
       <c r="C365" s="17"/>
@@ -7020,7 +7023,7 @@
       <c r="F365" s="17"/>
       <c r="G365" s="17"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="17"/>
       <c r="B366" s="17"/>
       <c r="C366" s="17"/>
@@ -7029,7 +7032,7 @@
       <c r="F366" s="17"/>
       <c r="G366" s="17"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="17"/>
       <c r="B367" s="17"/>
       <c r="C367" s="17"/>
@@ -7038,7 +7041,7 @@
       <c r="F367" s="17"/>
       <c r="G367" s="17"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="17"/>
       <c r="B368" s="17"/>
       <c r="C368" s="17"/>
@@ -7047,7 +7050,7 @@
       <c r="F368" s="17"/>
       <c r="G368" s="17"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="17"/>
       <c r="B369" s="17"/>
       <c r="C369" s="17"/>
@@ -7056,7 +7059,7 @@
       <c r="F369" s="17"/>
       <c r="G369" s="17"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="17"/>
       <c r="B370" s="17"/>
       <c r="C370" s="17"/>
@@ -7065,7 +7068,7 @@
       <c r="F370" s="17"/>
       <c r="G370" s="17"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="17"/>
       <c r="B371" s="17"/>
       <c r="C371" s="17"/>
@@ -7074,7 +7077,7 @@
       <c r="F371" s="17"/>
       <c r="G371" s="17"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="17"/>
       <c r="B372" s="17"/>
       <c r="C372" s="17"/>
@@ -7083,7 +7086,7 @@
       <c r="F372" s="17"/>
       <c r="G372" s="17"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="17"/>
       <c r="B373" s="17"/>
       <c r="C373" s="17"/>
@@ -7092,7 +7095,7 @@
       <c r="F373" s="17"/>
       <c r="G373" s="17"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="17"/>
       <c r="B374" s="17"/>
       <c r="C374" s="17"/>
@@ -7101,7 +7104,7 @@
       <c r="F374" s="17"/>
       <c r="G374" s="17"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="17"/>
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
@@ -7110,7 +7113,7 @@
       <c r="F375" s="17"/>
       <c r="G375" s="17"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="17"/>
       <c r="B376" s="17"/>
       <c r="C376" s="17"/>
@@ -7119,7 +7122,7 @@
       <c r="F376" s="17"/>
       <c r="G376" s="17"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="17"/>
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
@@ -7128,7 +7131,7 @@
       <c r="F377" s="17"/>
       <c r="G377" s="17"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="17"/>
       <c r="B378" s="17"/>
       <c r="C378" s="17"/>
@@ -7137,7 +7140,7 @@
       <c r="F378" s="17"/>
       <c r="G378" s="17"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="17"/>
       <c r="B379" s="17"/>
       <c r="C379" s="17"/>
@@ -7146,7 +7149,7 @@
       <c r="F379" s="17"/>
       <c r="G379" s="17"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="17"/>
       <c r="B380" s="17"/>
       <c r="C380" s="17"/>
@@ -7155,7 +7158,7 @@
       <c r="F380" s="17"/>
       <c r="G380" s="17"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="17"/>
       <c r="B381" s="17"/>
       <c r="C381" s="17"/>
@@ -7164,7 +7167,7 @@
       <c r="F381" s="17"/>
       <c r="G381" s="17"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="17"/>
       <c r="B382" s="17"/>
       <c r="C382" s="17"/>
@@ -7173,7 +7176,7 @@
       <c r="F382" s="17"/>
       <c r="G382" s="17"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="17"/>
       <c r="B383" s="17"/>
       <c r="C383" s="17"/>
@@ -7182,7 +7185,7 @@
       <c r="F383" s="17"/>
       <c r="G383" s="17"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="17"/>
       <c r="B384" s="17"/>
       <c r="C384" s="17"/>
@@ -7191,7 +7194,7 @@
       <c r="F384" s="17"/>
       <c r="G384" s="17"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="17"/>
       <c r="B385" s="17"/>
       <c r="C385" s="17"/>
@@ -7200,7 +7203,7 @@
       <c r="F385" s="17"/>
       <c r="G385" s="17"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="17"/>
       <c r="B386" s="17"/>
       <c r="C386" s="17"/>
@@ -7209,7 +7212,7 @@
       <c r="F386" s="17"/>
       <c r="G386" s="17"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="17"/>
       <c r="B387" s="17"/>
       <c r="C387" s="17"/>
@@ -7218,7 +7221,7 @@
       <c r="F387" s="17"/>
       <c r="G387" s="17"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="17"/>
       <c r="B388" s="17"/>
       <c r="C388" s="17"/>
@@ -7227,7 +7230,7 @@
       <c r="F388" s="17"/>
       <c r="G388" s="17"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="17"/>
       <c r="B389" s="17"/>
       <c r="C389" s="17"/>
@@ -7236,7 +7239,7 @@
       <c r="F389" s="17"/>
       <c r="G389" s="17"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="17"/>
       <c r="B390" s="17"/>
       <c r="C390" s="17"/>
@@ -7245,7 +7248,7 @@
       <c r="F390" s="17"/>
       <c r="G390" s="17"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="17"/>
       <c r="B391" s="17"/>
       <c r="C391" s="17"/>
@@ -7254,7 +7257,7 @@
       <c r="F391" s="17"/>
       <c r="G391" s="17"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="17"/>
       <c r="B392" s="17"/>
       <c r="C392" s="17"/>
@@ -7263,7 +7266,7 @@
       <c r="F392" s="17"/>
       <c r="G392" s="17"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="17"/>
       <c r="B393" s="17"/>
       <c r="C393" s="17"/>
@@ -7272,7 +7275,7 @@
       <c r="F393" s="17"/>
       <c r="G393" s="17"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="17"/>
       <c r="B394" s="17"/>
       <c r="C394" s="17"/>
@@ -7281,7 +7284,7 @@
       <c r="F394" s="17"/>
       <c r="G394" s="17"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="17"/>
       <c r="B395" s="17"/>
       <c r="C395" s="17"/>
@@ -7290,7 +7293,7 @@
       <c r="F395" s="17"/>
       <c r="G395" s="17"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="17"/>
       <c r="B396" s="17"/>
       <c r="C396" s="17"/>
@@ -7299,7 +7302,7 @@
       <c r="F396" s="17"/>
       <c r="G396" s="17"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="17"/>
       <c r="B397" s="17"/>
       <c r="C397" s="17"/>
@@ -7308,7 +7311,7 @@
       <c r="F397" s="17"/>
       <c r="G397" s="17"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="17"/>
       <c r="B398" s="17"/>
       <c r="C398" s="17"/>
@@ -7317,7 +7320,7 @@
       <c r="F398" s="17"/>
       <c r="G398" s="17"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="17"/>
       <c r="B399" s="17"/>
       <c r="C399" s="17"/>
@@ -7326,7 +7329,7 @@
       <c r="F399" s="17"/>
       <c r="G399" s="17"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="17"/>
       <c r="B400" s="17"/>
       <c r="C400" s="17"/>
@@ -7335,7 +7338,7 @@
       <c r="F400" s="17"/>
       <c r="G400" s="17"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="17"/>
       <c r="B401" s="17"/>
       <c r="C401" s="17"/>
@@ -7344,7 +7347,7 @@
       <c r="F401" s="17"/>
       <c r="G401" s="17"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="17"/>
       <c r="B402" s="17"/>
       <c r="C402" s="17"/>
@@ -7353,7 +7356,7 @@
       <c r="F402" s="17"/>
       <c r="G402" s="17"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="17"/>
       <c r="B403" s="17"/>
       <c r="C403" s="17"/>
@@ -7362,7 +7365,7 @@
       <c r="F403" s="17"/>
       <c r="G403" s="17"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="17"/>
       <c r="B404" s="17"/>
       <c r="C404" s="17"/>
@@ -7371,7 +7374,7 @@
       <c r="F404" s="17"/>
       <c r="G404" s="17"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="17"/>
       <c r="B405" s="17"/>
       <c r="C405" s="17"/>
@@ -7380,7 +7383,7 @@
       <c r="F405" s="17"/>
       <c r="G405" s="17"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="17"/>
       <c r="B406" s="17"/>
       <c r="C406" s="17"/>
@@ -7389,7 +7392,7 @@
       <c r="F406" s="17"/>
       <c r="G406" s="17"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="17"/>
       <c r="B407" s="17"/>
       <c r="C407" s="17"/>
@@ -7398,7 +7401,7 @@
       <c r="F407" s="17"/>
       <c r="G407" s="17"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="17"/>
       <c r="B408" s="17"/>
       <c r="C408" s="17"/>
@@ -7407,7 +7410,7 @@
       <c r="F408" s="17"/>
       <c r="G408" s="17"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="17"/>
       <c r="B409" s="17"/>
       <c r="C409" s="17"/>
@@ -7416,7 +7419,7 @@
       <c r="F409" s="17"/>
       <c r="G409" s="17"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="17"/>
       <c r="B410" s="17"/>
       <c r="C410" s="17"/>
@@ -7425,7 +7428,7 @@
       <c r="F410" s="17"/>
       <c r="G410" s="17"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="17"/>
       <c r="B411" s="17"/>
       <c r="C411" s="17"/>
@@ -7434,7 +7437,7 @@
       <c r="F411" s="17"/>
       <c r="G411" s="17"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="17"/>
       <c r="B412" s="17"/>
       <c r="C412" s="17"/>
@@ -7443,7 +7446,7 @@
       <c r="F412" s="17"/>
       <c r="G412" s="17"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="17"/>
       <c r="B413" s="17"/>
       <c r="C413" s="17"/>
@@ -7452,7 +7455,7 @@
       <c r="F413" s="17"/>
       <c r="G413" s="17"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="17"/>
       <c r="B414" s="17"/>
       <c r="C414" s="17"/>
@@ -7461,7 +7464,7 @@
       <c r="F414" s="17"/>
       <c r="G414" s="17"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="17"/>
       <c r="B415" s="17"/>
       <c r="C415" s="17"/>
@@ -7470,7 +7473,7 @@
       <c r="F415" s="17"/>
       <c r="G415" s="17"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="17"/>
       <c r="B416" s="17"/>
       <c r="C416" s="17"/>
@@ -7479,7 +7482,7 @@
       <c r="F416" s="17"/>
       <c r="G416" s="17"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="17"/>
       <c r="B417" s="17"/>
       <c r="C417" s="17"/>
@@ -7488,7 +7491,7 @@
       <c r="F417" s="17"/>
       <c r="G417" s="17"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="17"/>
       <c r="B418" s="17"/>
       <c r="C418" s="17"/>
@@ -7497,7 +7500,7 @@
       <c r="F418" s="17"/>
       <c r="G418" s="17"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="17"/>
       <c r="B419" s="17"/>
       <c r="C419" s="17"/>
@@ -7506,7 +7509,7 @@
       <c r="F419" s="17"/>
       <c r="G419" s="17"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="17"/>
       <c r="B420" s="17"/>
       <c r="C420" s="17"/>
@@ -7515,7 +7518,7 @@
       <c r="F420" s="17"/>
       <c r="G420" s="17"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="17"/>
       <c r="B421" s="17"/>
       <c r="C421" s="17"/>
@@ -7524,7 +7527,7 @@
       <c r="F421" s="17"/>
       <c r="G421" s="17"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="17"/>
       <c r="B422" s="17"/>
       <c r="C422" s="17"/>
@@ -7533,7 +7536,7 @@
       <c r="F422" s="17"/>
       <c r="G422" s="17"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="17"/>
       <c r="B423" s="17"/>
       <c r="C423" s="17"/>
@@ -7542,7 +7545,7 @@
       <c r="F423" s="17"/>
       <c r="G423" s="17"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="17"/>
       <c r="B424" s="17"/>
       <c r="C424" s="17"/>
@@ -7551,7 +7554,7 @@
       <c r="F424" s="17"/>
       <c r="G424" s="17"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="17"/>
       <c r="B425" s="17"/>
       <c r="C425" s="17"/>
@@ -7560,7 +7563,7 @@
       <c r="F425" s="17"/>
       <c r="G425" s="17"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="17"/>
       <c r="B426" s="17"/>
       <c r="C426" s="17"/>
@@ -7569,7 +7572,7 @@
       <c r="F426" s="17"/>
       <c r="G426" s="17"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="17"/>
       <c r="B427" s="17"/>
       <c r="C427" s="17"/>
@@ -7578,7 +7581,7 @@
       <c r="F427" s="17"/>
       <c r="G427" s="17"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="17"/>
       <c r="B428" s="17"/>
       <c r="C428" s="17"/>
@@ -7587,7 +7590,7 @@
       <c r="F428" s="17"/>
       <c r="G428" s="17"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="17"/>
       <c r="B429" s="17"/>
       <c r="C429" s="17"/>
@@ -7596,7 +7599,7 @@
       <c r="F429" s="17"/>
       <c r="G429" s="17"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="17"/>
       <c r="B430" s="17"/>
       <c r="C430" s="17"/>
@@ -7605,7 +7608,7 @@
       <c r="F430" s="17"/>
       <c r="G430" s="17"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="17"/>
       <c r="B431" s="17"/>
       <c r="C431" s="17"/>
@@ -7614,7 +7617,7 @@
       <c r="F431" s="17"/>
       <c r="G431" s="17"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="17"/>
       <c r="B432" s="17"/>
       <c r="C432" s="17"/>
@@ -7623,7 +7626,7 @@
       <c r="F432" s="17"/>
       <c r="G432" s="17"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="17"/>
       <c r="B433" s="17"/>
       <c r="C433" s="17"/>
@@ -7632,7 +7635,7 @@
       <c r="F433" s="17"/>
       <c r="G433" s="17"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="17"/>
       <c r="B434" s="17"/>
       <c r="C434" s="17"/>
@@ -7641,7 +7644,7 @@
       <c r="F434" s="17"/>
       <c r="G434" s="17"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="17"/>
       <c r="B435" s="17"/>
       <c r="C435" s="17"/>
@@ -7650,7 +7653,7 @@
       <c r="F435" s="17"/>
       <c r="G435" s="17"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="17"/>
       <c r="B436" s="17"/>
       <c r="C436" s="17"/>
@@ -7659,7 +7662,7 @@
       <c r="F436" s="17"/>
       <c r="G436" s="17"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="17"/>
       <c r="B437" s="17"/>
       <c r="C437" s="17"/>
@@ -7668,7 +7671,7 @@
       <c r="F437" s="17"/>
       <c r="G437" s="17"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="17"/>
       <c r="B438" s="17"/>
       <c r="C438" s="17"/>
@@ -7677,7 +7680,7 @@
       <c r="F438" s="17"/>
       <c r="G438" s="17"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="17"/>
       <c r="B439" s="17"/>
       <c r="C439" s="17"/>
@@ -7686,7 +7689,7 @@
       <c r="F439" s="17"/>
       <c r="G439" s="17"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="17"/>
       <c r="B440" s="17"/>
       <c r="C440" s="17"/>
@@ -7695,7 +7698,7 @@
       <c r="F440" s="17"/>
       <c r="G440" s="17"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="17"/>
       <c r="B441" s="17"/>
       <c r="C441" s="17"/>
@@ -7704,7 +7707,7 @@
       <c r="F441" s="17"/>
       <c r="G441" s="17"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="17"/>
       <c r="B442" s="17"/>
       <c r="C442" s="17"/>
@@ -7713,7 +7716,7 @@
       <c r="F442" s="17"/>
       <c r="G442" s="17"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="17"/>
       <c r="B443" s="17"/>
       <c r="C443" s="17"/>
@@ -7722,7 +7725,7 @@
       <c r="F443" s="17"/>
       <c r="G443" s="17"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="17"/>
       <c r="B444" s="17"/>
       <c r="C444" s="17"/>
@@ -7731,7 +7734,7 @@
       <c r="F444" s="17"/>
       <c r="G444" s="17"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="17"/>
       <c r="B445" s="17"/>
       <c r="C445" s="17"/>
@@ -7740,7 +7743,7 @@
       <c r="F445" s="17"/>
       <c r="G445" s="17"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="17"/>
       <c r="B446" s="17"/>
       <c r="C446" s="17"/>
@@ -7749,7 +7752,7 @@
       <c r="F446" s="17"/>
       <c r="G446" s="17"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="17"/>
       <c r="B447" s="17"/>
       <c r="C447" s="17"/>
@@ -7758,7 +7761,7 @@
       <c r="F447" s="17"/>
       <c r="G447" s="17"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="17"/>
       <c r="B448" s="17"/>
       <c r="C448" s="17"/>
@@ -7767,7 +7770,7 @@
       <c r="F448" s="17"/>
       <c r="G448" s="17"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="17"/>
       <c r="B449" s="17"/>
       <c r="C449" s="17"/>
@@ -7776,7 +7779,7 @@
       <c r="F449" s="17"/>
       <c r="G449" s="17"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="17"/>
       <c r="B450" s="17"/>
       <c r="C450" s="17"/>
@@ -7785,7 +7788,7 @@
       <c r="F450" s="17"/>
       <c r="G450" s="17"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="17"/>
       <c r="B451" s="17"/>
       <c r="C451" s="17"/>
@@ -7794,7 +7797,7 @@
       <c r="F451" s="17"/>
       <c r="G451" s="17"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="17"/>
       <c r="B452" s="17"/>
       <c r="C452" s="17"/>
@@ -7803,7 +7806,7 @@
       <c r="F452" s="17"/>
       <c r="G452" s="17"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="17"/>
       <c r="B453" s="17"/>
       <c r="C453" s="17"/>
@@ -7812,7 +7815,7 @@
       <c r="F453" s="17"/>
       <c r="G453" s="17"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="17"/>
       <c r="B454" s="17"/>
       <c r="C454" s="17"/>
@@ -7821,7 +7824,7 @@
       <c r="F454" s="17"/>
       <c r="G454" s="17"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="17"/>
       <c r="B455" s="17"/>
       <c r="C455" s="17"/>
@@ -7830,7 +7833,7 @@
       <c r="F455" s="17"/>
       <c r="G455" s="17"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="17"/>
       <c r="B456" s="17"/>
       <c r="C456" s="17"/>
@@ -7839,7 +7842,7 @@
       <c r="F456" s="17"/>
       <c r="G456" s="17"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="17"/>
       <c r="B457" s="17"/>
       <c r="C457" s="17"/>
@@ -7848,7 +7851,7 @@
       <c r="F457" s="17"/>
       <c r="G457" s="17"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="17"/>
       <c r="B458" s="17"/>
       <c r="C458" s="17"/>
@@ -7857,7 +7860,7 @@
       <c r="F458" s="17"/>
       <c r="G458" s="17"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="17"/>
       <c r="B459" s="17"/>
       <c r="C459" s="17"/>
@@ -7866,7 +7869,7 @@
       <c r="F459" s="17"/>
       <c r="G459" s="17"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="17"/>
       <c r="B460" s="17"/>
       <c r="C460" s="17"/>
@@ -7875,7 +7878,7 @@
       <c r="F460" s="17"/>
       <c r="G460" s="17"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="17"/>
       <c r="B461" s="17"/>
       <c r="C461" s="17"/>
@@ -7884,7 +7887,7 @@
       <c r="F461" s="17"/>
       <c r="G461" s="17"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="17"/>
       <c r="B462" s="17"/>
       <c r="C462" s="17"/>
@@ -7893,7 +7896,7 @@
       <c r="F462" s="17"/>
       <c r="G462" s="17"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="17"/>
       <c r="B463" s="17"/>
       <c r="C463" s="17"/>
@@ -7902,7 +7905,7 @@
       <c r="F463" s="17"/>
       <c r="G463" s="17"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="17"/>
       <c r="B464" s="17"/>
       <c r="C464" s="17"/>
@@ -7911,7 +7914,7 @@
       <c r="F464" s="17"/>
       <c r="G464" s="17"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" s="17"/>
       <c r="B465" s="17"/>
       <c r="C465" s="17"/>
@@ -7920,7 +7923,7 @@
       <c r="F465" s="17"/>
       <c r="G465" s="17"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="17"/>
       <c r="B466" s="17"/>
       <c r="C466" s="17"/>
@@ -7929,7 +7932,7 @@
       <c r="F466" s="17"/>
       <c r="G466" s="17"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" s="17"/>
       <c r="B467" s="17"/>
       <c r="C467" s="17"/>
@@ -7938,7 +7941,7 @@
       <c r="F467" s="17"/>
       <c r="G467" s="17"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" s="17"/>
       <c r="B468" s="17"/>
       <c r="C468" s="17"/>
@@ -7947,7 +7950,7 @@
       <c r="F468" s="17"/>
       <c r="G468" s="17"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" s="17"/>
       <c r="B469" s="17"/>
       <c r="C469" s="17"/>
@@ -7956,7 +7959,7 @@
       <c r="F469" s="17"/>
       <c r="G469" s="17"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" s="17"/>
       <c r="B470" s="17"/>
       <c r="C470" s="17"/>
@@ -7965,7 +7968,7 @@
       <c r="F470" s="17"/>
       <c r="G470" s="17"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" s="17"/>
       <c r="B471" s="17"/>
       <c r="C471" s="17"/>
@@ -7974,7 +7977,7 @@
       <c r="F471" s="17"/>
       <c r="G471" s="17"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" s="17"/>
       <c r="B472" s="17"/>
       <c r="C472" s="17"/>
@@ -7983,7 +7986,7 @@
       <c r="F472" s="17"/>
       <c r="G472" s="17"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" s="17"/>
       <c r="B473" s="17"/>
       <c r="C473" s="17"/>
@@ -7992,7 +7995,7 @@
       <c r="F473" s="17"/>
       <c r="G473" s="17"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" s="17"/>
       <c r="B474" s="17"/>
       <c r="C474" s="17"/>
@@ -8001,7 +8004,7 @@
       <c r="F474" s="17"/>
       <c r="G474" s="17"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" s="17"/>
       <c r="B475" s="17"/>
       <c r="C475" s="17"/>
@@ -8010,7 +8013,7 @@
       <c r="F475" s="17"/>
       <c r="G475" s="17"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" s="17"/>
       <c r="B476" s="17"/>
       <c r="C476" s="17"/>
@@ -8019,7 +8022,7 @@
       <c r="F476" s="17"/>
       <c r="G476" s="17"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" s="17"/>
       <c r="B477" s="17"/>
       <c r="C477" s="17"/>
@@ -8028,7 +8031,7 @@
       <c r="F477" s="17"/>
       <c r="G477" s="17"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" s="17"/>
       <c r="B478" s="17"/>
       <c r="C478" s="17"/>
@@ -8037,7 +8040,7 @@
       <c r="F478" s="17"/>
       <c r="G478" s="17"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" s="17"/>
       <c r="B479" s="17"/>
       <c r="C479" s="17"/>
@@ -8046,7 +8049,7 @@
       <c r="F479" s="17"/>
       <c r="G479" s="17"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" s="17"/>
       <c r="B480" s="17"/>
       <c r="C480" s="17"/>
@@ -8055,7 +8058,7 @@
       <c r="F480" s="17"/>
       <c r="G480" s="17"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" s="17"/>
       <c r="B481" s="17"/>
       <c r="C481" s="17"/>
@@ -8064,7 +8067,7 @@
       <c r="F481" s="17"/>
       <c r="G481" s="17"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" s="17"/>
       <c r="B482" s="17"/>
       <c r="C482" s="17"/>
@@ -8073,7 +8076,7 @@
       <c r="F482" s="17"/>
       <c r="G482" s="17"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" s="17"/>
       <c r="B483" s="17"/>
       <c r="C483" s="17"/>
@@ -8082,7 +8085,7 @@
       <c r="F483" s="17"/>
       <c r="G483" s="17"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" s="17"/>
       <c r="B484" s="17"/>
       <c r="C484" s="17"/>
@@ -8091,7 +8094,7 @@
       <c r="F484" s="17"/>
       <c r="G484" s="17"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" s="17"/>
       <c r="B485" s="17"/>
       <c r="C485" s="17"/>
@@ -8100,7 +8103,7 @@
       <c r="F485" s="17"/>
       <c r="G485" s="17"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" s="17"/>
       <c r="B486" s="17"/>
       <c r="C486" s="17"/>
@@ -8109,7 +8112,7 @@
       <c r="F486" s="17"/>
       <c r="G486" s="17"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" s="17"/>
       <c r="B487" s="17"/>
       <c r="C487" s="17"/>
@@ -8118,7 +8121,7 @@
       <c r="F487" s="17"/>
       <c r="G487" s="17"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" s="17"/>
       <c r="B488" s="17"/>
       <c r="C488" s="17"/>
@@ -8127,7 +8130,7 @@
       <c r="F488" s="17"/>
       <c r="G488" s="17"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" s="17"/>
       <c r="B489" s="17"/>
       <c r="C489" s="17"/>
@@ -8136,7 +8139,7 @@
       <c r="F489" s="17"/>
       <c r="G489" s="17"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" s="17"/>
       <c r="B490" s="17"/>
       <c r="C490" s="17"/>
@@ -8145,7 +8148,7 @@
       <c r="F490" s="17"/>
       <c r="G490" s="17"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" s="17"/>
       <c r="B491" s="17"/>
       <c r="C491" s="17"/>
@@ -8154,7 +8157,7 @@
       <c r="F491" s="17"/>
       <c r="G491" s="17"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" s="17"/>
       <c r="B492" s="17"/>
       <c r="C492" s="17"/>
@@ -8163,7 +8166,7 @@
       <c r="F492" s="17"/>
       <c r="G492" s="17"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" s="17"/>
       <c r="B493" s="17"/>
       <c r="C493" s="17"/>
@@ -8172,7 +8175,7 @@
       <c r="F493" s="17"/>
       <c r="G493" s="17"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" s="17"/>
       <c r="B494" s="17"/>
       <c r="C494" s="17"/>
@@ -8181,7 +8184,7 @@
       <c r="F494" s="17"/>
       <c r="G494" s="17"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" s="17"/>
       <c r="B495" s="17"/>
       <c r="C495" s="17"/>
@@ -8190,7 +8193,7 @@
       <c r="F495" s="17"/>
       <c r="G495" s="17"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" s="17"/>
       <c r="B496" s="17"/>
       <c r="C496" s="17"/>
@@ -8199,7 +8202,7 @@
       <c r="F496" s="17"/>
       <c r="G496" s="17"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" s="17"/>
       <c r="B497" s="17"/>
       <c r="C497" s="17"/>
@@ -8208,7 +8211,7 @@
       <c r="F497" s="17"/>
       <c r="G497" s="17"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" s="17"/>
       <c r="B498" s="17"/>
       <c r="C498" s="17"/>
@@ -8217,7 +8220,7 @@
       <c r="F498" s="17"/>
       <c r="G498" s="17"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" s="17"/>
       <c r="B499" s="17"/>
       <c r="C499" s="17"/>
@@ -8226,7 +8229,7 @@
       <c r="F499" s="17"/>
       <c r="G499" s="17"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" s="17"/>
       <c r="B500" s="17"/>
       <c r="C500" s="17"/>
@@ -8235,7 +8238,7 @@
       <c r="F500" s="17"/>
       <c r="G500" s="17"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" s="17"/>
       <c r="B501" s="17"/>
       <c r="C501" s="17"/>
@@ -8244,7 +8247,7 @@
       <c r="F501" s="17"/>
       <c r="G501" s="17"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" s="17"/>
       <c r="B502" s="17"/>
       <c r="C502" s="17"/>
@@ -8253,7 +8256,7 @@
       <c r="F502" s="17"/>
       <c r="G502" s="17"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" s="17"/>
       <c r="B503" s="17"/>
       <c r="C503" s="17"/>
@@ -8262,7 +8265,7 @@
       <c r="F503" s="17"/>
       <c r="G503" s="17"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" s="17"/>
       <c r="B504" s="17"/>
       <c r="C504" s="17"/>
@@ -8271,7 +8274,7 @@
       <c r="F504" s="17"/>
       <c r="G504" s="17"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" s="17"/>
       <c r="B505" s="17"/>
       <c r="C505" s="17"/>
@@ -8280,7 +8283,7 @@
       <c r="F505" s="17"/>
       <c r="G505" s="17"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" s="17"/>
       <c r="B506" s="17"/>
       <c r="C506" s="17"/>
@@ -8289,7 +8292,7 @@
       <c r="F506" s="17"/>
       <c r="G506" s="17"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" s="17"/>
       <c r="B507" s="17"/>
       <c r="C507" s="17"/>
@@ -8298,7 +8301,7 @@
       <c r="F507" s="17"/>
       <c r="G507" s="17"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" s="17"/>
       <c r="B508" s="17"/>
       <c r="C508" s="17"/>
@@ -8307,7 +8310,7 @@
       <c r="F508" s="17"/>
       <c r="G508" s="17"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" s="17"/>
       <c r="B509" s="17"/>
       <c r="C509" s="17"/>
@@ -8316,7 +8319,7 @@
       <c r="F509" s="17"/>
       <c r="G509" s="17"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" s="17"/>
       <c r="B510" s="17"/>
       <c r="C510" s="17"/>
@@ -8325,7 +8328,7 @@
       <c r="F510" s="17"/>
       <c r="G510" s="17"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" s="17"/>
       <c r="B511" s="17"/>
       <c r="C511" s="17"/>
@@ -8334,7 +8337,7 @@
       <c r="F511" s="17"/>
       <c r="G511" s="17"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" s="17"/>
       <c r="B512" s="17"/>
       <c r="C512" s="17"/>
@@ -8343,7 +8346,7 @@
       <c r="F512" s="17"/>
       <c r="G512" s="17"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" s="17"/>
       <c r="B513" s="17"/>
       <c r="C513" s="17"/>
@@ -8352,7 +8355,7 @@
       <c r="F513" s="17"/>
       <c r="G513" s="17"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" s="17"/>
       <c r="B514" s="17"/>
       <c r="C514" s="17"/>
@@ -8361,7 +8364,7 @@
       <c r="F514" s="17"/>
       <c r="G514" s="17"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" s="17"/>
       <c r="B515" s="17"/>
       <c r="C515" s="17"/>
@@ -8370,7 +8373,7 @@
       <c r="F515" s="17"/>
       <c r="G515" s="17"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" s="17"/>
       <c r="B516" s="17"/>
       <c r="C516" s="17"/>
@@ -8379,7 +8382,7 @@
       <c r="F516" s="17"/>
       <c r="G516" s="17"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" s="17"/>
       <c r="B517" s="17"/>
       <c r="C517" s="17"/>
@@ -8388,7 +8391,7 @@
       <c r="F517" s="17"/>
       <c r="G517" s="17"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" s="17"/>
       <c r="B518" s="17"/>
       <c r="C518" s="17"/>
@@ -8397,7 +8400,7 @@
       <c r="F518" s="17"/>
       <c r="G518" s="17"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" s="17"/>
       <c r="B519" s="17"/>
       <c r="C519" s="17"/>
@@ -8406,7 +8409,7 @@
       <c r="F519" s="17"/>
       <c r="G519" s="17"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" s="17"/>
       <c r="B520" s="17"/>
       <c r="C520" s="17"/>
@@ -8415,7 +8418,7 @@
       <c r="F520" s="17"/>
       <c r="G520" s="17"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" s="17"/>
       <c r="B521" s="17"/>
       <c r="C521" s="17"/>
@@ -8424,7 +8427,7 @@
       <c r="F521" s="17"/>
       <c r="G521" s="17"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" s="17"/>
       <c r="B522" s="17"/>
       <c r="C522" s="17"/>
@@ -8433,7 +8436,7 @@
       <c r="F522" s="17"/>
       <c r="G522" s="17"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" s="17"/>
       <c r="B523" s="17"/>
       <c r="C523" s="17"/>
@@ -8442,7 +8445,7 @@
       <c r="F523" s="17"/>
       <c r="G523" s="17"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" s="17"/>
       <c r="B524" s="17"/>
       <c r="C524" s="17"/>
@@ -8451,7 +8454,7 @@
       <c r="F524" s="17"/>
       <c r="G524" s="17"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" s="17"/>
       <c r="B525" s="17"/>
       <c r="C525" s="17"/>
@@ -8460,7 +8463,7 @@
       <c r="F525" s="17"/>
       <c r="G525" s="17"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" s="17"/>
       <c r="B526" s="17"/>
       <c r="C526" s="17"/>
@@ -8469,7 +8472,7 @@
       <c r="F526" s="17"/>
       <c r="G526" s="17"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" s="17"/>
       <c r="B527" s="17"/>
       <c r="C527" s="17"/>
@@ -8478,7 +8481,7 @@
       <c r="F527" s="17"/>
       <c r="G527" s="17"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" s="17"/>
       <c r="B528" s="17"/>
       <c r="C528" s="17"/>
@@ -8487,7 +8490,7 @@
       <c r="F528" s="17"/>
       <c r="G528" s="17"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" s="17"/>
       <c r="B529" s="17"/>
       <c r="C529" s="17"/>
@@ -8496,7 +8499,7 @@
       <c r="F529" s="17"/>
       <c r="G529" s="17"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" s="17"/>
       <c r="B530" s="17"/>
       <c r="C530" s="17"/>
@@ -8505,7 +8508,7 @@
       <c r="F530" s="17"/>
       <c r="G530" s="17"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" s="17"/>
       <c r="B531" s="17"/>
       <c r="C531" s="17"/>
@@ -8514,7 +8517,7 @@
       <c r="F531" s="17"/>
       <c r="G531" s="17"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" s="17"/>
       <c r="B532" s="17"/>
       <c r="C532" s="17"/>
@@ -8523,7 +8526,7 @@
       <c r="F532" s="17"/>
       <c r="G532" s="17"/>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" s="17"/>
       <c r="B533" s="17"/>
       <c r="C533" s="17"/>
@@ -8532,7 +8535,7 @@
       <c r="F533" s="17"/>
       <c r="G533" s="17"/>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" s="17"/>
       <c r="B534" s="17"/>
       <c r="C534" s="17"/>
@@ -8541,7 +8544,7 @@
       <c r="F534" s="17"/>
       <c r="G534" s="17"/>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" s="17"/>
       <c r="B535" s="17"/>
       <c r="C535" s="17"/>
@@ -8550,7 +8553,7 @@
       <c r="F535" s="17"/>
       <c r="G535" s="17"/>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" s="17"/>
       <c r="B536" s="17"/>
       <c r="C536" s="17"/>
@@ -8559,7 +8562,7 @@
       <c r="F536" s="17"/>
       <c r="G536" s="17"/>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" s="17"/>
       <c r="B537" s="17"/>
       <c r="C537" s="17"/>
@@ -8568,7 +8571,7 @@
       <c r="F537" s="17"/>
       <c r="G537" s="17"/>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" s="17"/>
       <c r="B538" s="17"/>
       <c r="C538" s="17"/>
@@ -8577,7 +8580,7 @@
       <c r="F538" s="17"/>
       <c r="G538" s="17"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" s="17"/>
       <c r="B539" s="17"/>
       <c r="C539" s="17"/>
@@ -8586,7 +8589,7 @@
       <c r="F539" s="17"/>
       <c r="G539" s="17"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" s="17"/>
       <c r="B540" s="17"/>
       <c r="C540" s="17"/>
@@ -8595,7 +8598,7 @@
       <c r="F540" s="17"/>
       <c r="G540" s="17"/>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" s="17"/>
       <c r="B541" s="17"/>
       <c r="C541" s="17"/>
@@ -8604,7 +8607,7 @@
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" s="17"/>
       <c r="B542" s="17"/>
       <c r="C542" s="17"/>
@@ -8613,7 +8616,7 @@
       <c r="F542" s="17"/>
       <c r="G542" s="17"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" s="17"/>
       <c r="B543" s="17"/>
       <c r="C543" s="17"/>
@@ -8622,7 +8625,7 @@
       <c r="F543" s="17"/>
       <c r="G543" s="17"/>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" s="17"/>
       <c r="B544" s="17"/>
       <c r="C544" s="17"/>
@@ -8631,7 +8634,7 @@
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" s="17"/>
       <c r="B545" s="17"/>
       <c r="C545" s="17"/>
@@ -8640,7 +8643,7 @@
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" s="17"/>
       <c r="B546" s="17"/>
       <c r="C546" s="17"/>
@@ -8649,7 +8652,7 @@
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" s="17"/>
       <c r="B547" s="17"/>
       <c r="C547" s="17"/>
@@ -8658,7 +8661,7 @@
       <c r="F547" s="17"/>
       <c r="G547" s="17"/>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" s="17"/>
       <c r="B548" s="17"/>
       <c r="C548" s="17"/>
@@ -8667,7 +8670,7 @@
       <c r="F548" s="17"/>
       <c r="G548" s="17"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" s="17"/>
       <c r="B549" s="17"/>
       <c r="C549" s="17"/>
@@ -8676,7 +8679,7 @@
       <c r="F549" s="17"/>
       <c r="G549" s="17"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" s="17"/>
       <c r="B550" s="17"/>
       <c r="C550" s="17"/>
@@ -8685,7 +8688,7 @@
       <c r="F550" s="17"/>
       <c r="G550" s="17"/>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" s="17"/>
       <c r="B551" s="17"/>
       <c r="C551" s="17"/>
@@ -8694,7 +8697,7 @@
       <c r="F551" s="17"/>
       <c r="G551" s="17"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" s="17"/>
       <c r="B552" s="17"/>
       <c r="C552" s="17"/>
@@ -8703,7 +8706,7 @@
       <c r="F552" s="17"/>
       <c r="G552" s="17"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" s="17"/>
       <c r="B553" s="17"/>
       <c r="C553" s="17"/>
@@ -8712,7 +8715,7 @@
       <c r="F553" s="17"/>
       <c r="G553" s="17"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" s="17"/>
       <c r="B554" s="17"/>
       <c r="C554" s="17"/>
@@ -8721,7 +8724,7 @@
       <c r="F554" s="17"/>
       <c r="G554" s="17"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" s="17"/>
       <c r="B555" s="17"/>
       <c r="C555" s="17"/>
@@ -8730,7 +8733,7 @@
       <c r="F555" s="17"/>
       <c r="G555" s="17"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" s="17"/>
       <c r="B556" s="17"/>
       <c r="C556" s="17"/>
@@ -8739,7 +8742,7 @@
       <c r="F556" s="17"/>
       <c r="G556" s="17"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" s="17"/>
       <c r="B557" s="17"/>
       <c r="C557" s="17"/>
@@ -8748,7 +8751,7 @@
       <c r="F557" s="17"/>
       <c r="G557" s="17"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" s="17"/>
       <c r="B558" s="17"/>
       <c r="C558" s="17"/>
@@ -8757,7 +8760,7 @@
       <c r="F558" s="17"/>
       <c r="G558" s="17"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" s="17"/>
       <c r="B559" s="17"/>
       <c r="C559" s="17"/>
@@ -8766,7 +8769,7 @@
       <c r="F559" s="17"/>
       <c r="G559" s="17"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" s="17"/>
       <c r="B560" s="17"/>
       <c r="C560" s="17"/>
@@ -8775,7 +8778,7 @@
       <c r="F560" s="17"/>
       <c r="G560" s="17"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" s="17"/>
       <c r="B561" s="17"/>
       <c r="C561" s="17"/>
@@ -8784,7 +8787,7 @@
       <c r="F561" s="17"/>
       <c r="G561" s="17"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" s="17"/>
       <c r="B562" s="17"/>
       <c r="C562" s="17"/>
@@ -8793,7 +8796,7 @@
       <c r="F562" s="17"/>
       <c r="G562" s="17"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" s="17"/>
       <c r="B563" s="17"/>
       <c r="C563" s="17"/>
@@ -8802,7 +8805,7 @@
       <c r="F563" s="17"/>
       <c r="G563" s="17"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" s="17"/>
       <c r="B564" s="17"/>
       <c r="C564" s="17"/>
@@ -8811,7 +8814,7 @@
       <c r="F564" s="17"/>
       <c r="G564" s="17"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" s="17"/>
       <c r="B565" s="17"/>
       <c r="C565" s="17"/>
@@ -8820,7 +8823,7 @@
       <c r="F565" s="17"/>
       <c r="G565" s="17"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" s="17"/>
       <c r="B566" s="17"/>
       <c r="C566" s="17"/>
@@ -8829,7 +8832,7 @@
       <c r="F566" s="17"/>
       <c r="G566" s="17"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" s="17"/>
       <c r="B567" s="17"/>
       <c r="C567" s="17"/>
@@ -8838,7 +8841,7 @@
       <c r="F567" s="17"/>
       <c r="G567" s="17"/>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" s="17"/>
       <c r="B568" s="17"/>
       <c r="C568" s="17"/>
@@ -8847,7 +8850,7 @@
       <c r="F568" s="17"/>
       <c r="G568" s="17"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" s="17"/>
       <c r="B569" s="17"/>
       <c r="C569" s="17"/>
@@ -8856,7 +8859,7 @@
       <c r="F569" s="17"/>
       <c r="G569" s="17"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" s="17"/>
       <c r="B570" s="17"/>
       <c r="C570" s="17"/>
@@ -8865,7 +8868,7 @@
       <c r="F570" s="17"/>
       <c r="G570" s="17"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" s="17"/>
       <c r="B571" s="17"/>
       <c r="C571" s="17"/>
@@ -8874,7 +8877,7 @@
       <c r="F571" s="17"/>
       <c r="G571" s="17"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" s="17"/>
       <c r="B572" s="17"/>
       <c r="C572" s="17"/>
@@ -8883,7 +8886,7 @@
       <c r="F572" s="17"/>
       <c r="G572" s="17"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" s="17"/>
       <c r="B573" s="17"/>
       <c r="C573" s="17"/>
@@ -8892,7 +8895,7 @@
       <c r="F573" s="17"/>
       <c r="G573" s="17"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" s="17"/>
       <c r="B574" s="17"/>
       <c r="C574" s="17"/>
@@ -8901,7 +8904,7 @@
       <c r="F574" s="17"/>
       <c r="G574" s="17"/>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" s="17"/>
       <c r="B575" s="17"/>
       <c r="C575" s="17"/>
@@ -8910,7 +8913,7 @@
       <c r="F575" s="17"/>
       <c r="G575" s="17"/>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" s="17"/>
       <c r="B576" s="17"/>
       <c r="C576" s="17"/>
@@ -8919,7 +8922,7 @@
       <c r="F576" s="17"/>
       <c r="G576" s="17"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" s="17"/>
       <c r="B577" s="17"/>
       <c r="C577" s="17"/>
@@ -8928,7 +8931,7 @@
       <c r="F577" s="17"/>
       <c r="G577" s="17"/>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" s="17"/>
       <c r="B578" s="17"/>
       <c r="C578" s="17"/>
@@ -8937,7 +8940,7 @@
       <c r="F578" s="17"/>
       <c r="G578" s="17"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" s="17"/>
       <c r="B579" s="17"/>
       <c r="C579" s="17"/>
@@ -8946,7 +8949,7 @@
       <c r="F579" s="17"/>
       <c r="G579" s="17"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" s="17"/>
       <c r="B580" s="17"/>
       <c r="C580" s="17"/>
@@ -8955,7 +8958,7 @@
       <c r="F580" s="17"/>
       <c r="G580" s="17"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" s="17"/>
       <c r="B581" s="17"/>
       <c r="C581" s="17"/>
@@ -8964,7 +8967,7 @@
       <c r="F581" s="17"/>
       <c r="G581" s="17"/>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" s="17"/>
       <c r="B582" s="17"/>
       <c r="C582" s="17"/>
@@ -8973,7 +8976,7 @@
       <c r="F582" s="17"/>
       <c r="G582" s="17"/>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" s="17"/>
       <c r="B583" s="17"/>
       <c r="C583" s="17"/>
@@ -8982,7 +8985,7 @@
       <c r="F583" s="17"/>
       <c r="G583" s="17"/>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" s="17"/>
       <c r="B584" s="17"/>
       <c r="C584" s="17"/>
@@ -8991,7 +8994,7 @@
       <c r="F584" s="17"/>
       <c r="G584" s="17"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" s="17"/>
       <c r="B585" s="17"/>
       <c r="C585" s="17"/>
@@ -9000,7 +9003,7 @@
       <c r="F585" s="17"/>
       <c r="G585" s="17"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" s="17"/>
       <c r="B586" s="17"/>
       <c r="C586" s="17"/>
@@ -9009,7 +9012,7 @@
       <c r="F586" s="17"/>
       <c r="G586" s="17"/>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" s="17"/>
       <c r="B587" s="17"/>
       <c r="C587" s="17"/>
@@ -9018,7 +9021,7 @@
       <c r="F587" s="17"/>
       <c r="G587" s="17"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" s="17"/>
       <c r="B588" s="17"/>
       <c r="C588" s="17"/>
@@ -9027,7 +9030,7 @@
       <c r="F588" s="17"/>
       <c r="G588" s="17"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" s="17"/>
       <c r="B589" s="17"/>
       <c r="C589" s="17"/>
@@ -9036,7 +9039,7 @@
       <c r="F589" s="17"/>
       <c r="G589" s="17"/>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" s="17"/>
       <c r="B590" s="17"/>
       <c r="C590" s="17"/>
@@ -9045,7 +9048,7 @@
       <c r="F590" s="17"/>
       <c r="G590" s="17"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" s="17"/>
       <c r="B591" s="17"/>
       <c r="C591" s="17"/>
@@ -9054,7 +9057,7 @@
       <c r="F591" s="17"/>
       <c r="G591" s="17"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" s="17"/>
       <c r="B592" s="17"/>
       <c r="C592" s="17"/>
@@ -9063,7 +9066,7 @@
       <c r="F592" s="17"/>
       <c r="G592" s="17"/>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593" s="17"/>
       <c r="B593" s="17"/>
       <c r="C593" s="17"/>
@@ -9072,7 +9075,7 @@
       <c r="F593" s="17"/>
       <c r="G593" s="17"/>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594" s="17"/>
       <c r="B594" s="17"/>
       <c r="C594" s="17"/>
@@ -9081,7 +9084,7 @@
       <c r="F594" s="17"/>
       <c r="G594" s="17"/>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595" s="17"/>
       <c r="B595" s="17"/>
       <c r="C595" s="17"/>
@@ -9090,7 +9093,7 @@
       <c r="F595" s="17"/>
       <c r="G595" s="17"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596" s="17"/>
       <c r="B596" s="17"/>
       <c r="C596" s="17"/>
@@ -9099,7 +9102,7 @@
       <c r="F596" s="17"/>
       <c r="G596" s="17"/>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597" s="17"/>
       <c r="B597" s="17"/>
       <c r="C597" s="17"/>
@@ -9108,7 +9111,7 @@
       <c r="F597" s="17"/>
       <c r="G597" s="17"/>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598" s="17"/>
       <c r="B598" s="17"/>
       <c r="C598" s="17"/>
@@ -9117,7 +9120,7 @@
       <c r="F598" s="17"/>
       <c r="G598" s="17"/>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599" s="17"/>
       <c r="B599" s="17"/>
       <c r="C599" s="17"/>
@@ -9126,7 +9129,7 @@
       <c r="F599" s="17"/>
       <c r="G599" s="17"/>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600" s="17"/>
       <c r="B600" s="17"/>
       <c r="C600" s="17"/>
@@ -9135,7 +9138,7 @@
       <c r="F600" s="17"/>
       <c r="G600" s="17"/>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601" s="17"/>
       <c r="B601" s="17"/>
       <c r="C601" s="17"/>
@@ -9144,7 +9147,7 @@
       <c r="F601" s="17"/>
       <c r="G601" s="17"/>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602" s="17"/>
       <c r="B602" s="17"/>
       <c r="C602" s="17"/>
@@ -9153,7 +9156,7 @@
       <c r="F602" s="17"/>
       <c r="G602" s="17"/>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603" s="17"/>
       <c r="B603" s="17"/>
       <c r="C603" s="17"/>
@@ -9162,7 +9165,7 @@
       <c r="F603" s="17"/>
       <c r="G603" s="17"/>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604" s="17"/>
       <c r="B604" s="17"/>
       <c r="C604" s="17"/>
@@ -9171,7 +9174,7 @@
       <c r="F604" s="17"/>
       <c r="G604" s="17"/>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605" s="17"/>
       <c r="B605" s="17"/>
       <c r="C605" s="17"/>
@@ -9180,7 +9183,7 @@
       <c r="F605" s="17"/>
       <c r="G605" s="17"/>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606" s="17"/>
       <c r="B606" s="17"/>
       <c r="C606" s="17"/>
@@ -9189,7 +9192,7 @@
       <c r="F606" s="17"/>
       <c r="G606" s="17"/>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607" s="17"/>
       <c r="B607" s="17"/>
       <c r="C607" s="17"/>
@@ -9198,7 +9201,7 @@
       <c r="F607" s="17"/>
       <c r="G607" s="17"/>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608" s="17"/>
       <c r="B608" s="17"/>
       <c r="C608" s="17"/>
@@ -9207,7 +9210,7 @@
       <c r="F608" s="17"/>
       <c r="G608" s="17"/>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" s="17"/>
       <c r="B609" s="17"/>
       <c r="C609" s="17"/>
@@ -9216,7 +9219,7 @@
       <c r="F609" s="17"/>
       <c r="G609" s="17"/>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" s="17"/>
       <c r="B610" s="17"/>
       <c r="C610" s="17"/>
@@ -9225,7 +9228,7 @@
       <c r="F610" s="17"/>
       <c r="G610" s="17"/>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" s="17"/>
       <c r="B611" s="17"/>
       <c r="C611" s="17"/>
@@ -9234,7 +9237,7 @@
       <c r="F611" s="17"/>
       <c r="G611" s="17"/>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" s="17"/>
       <c r="B612" s="17"/>
       <c r="C612" s="17"/>
@@ -9243,7 +9246,7 @@
       <c r="F612" s="17"/>
       <c r="G612" s="17"/>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" s="17"/>
       <c r="B613" s="17"/>
       <c r="C613" s="17"/>
@@ -9252,7 +9255,7 @@
       <c r="F613" s="17"/>
       <c r="G613" s="17"/>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" s="17"/>
       <c r="B614" s="17"/>
       <c r="C614" s="17"/>
@@ -9261,7 +9264,7 @@
       <c r="F614" s="17"/>
       <c r="G614" s="17"/>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" s="17"/>
       <c r="B615" s="17"/>
       <c r="C615" s="17"/>
@@ -9270,7 +9273,7 @@
       <c r="F615" s="17"/>
       <c r="G615" s="17"/>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" s="17"/>
       <c r="B616" s="17"/>
       <c r="C616" s="17"/>
@@ -9279,7 +9282,7 @@
       <c r="F616" s="17"/>
       <c r="G616" s="17"/>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" s="17"/>
       <c r="B617" s="17"/>
       <c r="C617" s="17"/>
@@ -9288,7 +9291,7 @@
       <c r="F617" s="17"/>
       <c r="G617" s="17"/>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" s="17"/>
       <c r="B618" s="17"/>
       <c r="C618" s="17"/>
@@ -9297,7 +9300,7 @@
       <c r="F618" s="17"/>
       <c r="G618" s="17"/>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" s="17"/>
       <c r="B619" s="17"/>
       <c r="C619" s="17"/>
@@ -9306,7 +9309,7 @@
       <c r="F619" s="17"/>
       <c r="G619" s="17"/>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" s="17"/>
       <c r="B620" s="17"/>
       <c r="C620" s="17"/>
@@ -9315,7 +9318,7 @@
       <c r="F620" s="17"/>
       <c r="G620" s="17"/>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621" s="17"/>
       <c r="B621" s="17"/>
       <c r="C621" s="17"/>
@@ -9324,7 +9327,7 @@
       <c r="F621" s="17"/>
       <c r="G621" s="17"/>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622" s="17"/>
       <c r="B622" s="17"/>
       <c r="C622" s="17"/>
@@ -9333,7 +9336,7 @@
       <c r="F622" s="17"/>
       <c r="G622" s="17"/>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623" s="17"/>
       <c r="B623" s="17"/>
       <c r="C623" s="17"/>
@@ -9342,7 +9345,7 @@
       <c r="F623" s="17"/>
       <c r="G623" s="17"/>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" s="17"/>
       <c r="B624" s="17"/>
       <c r="C624" s="17"/>
@@ -9351,7 +9354,7 @@
       <c r="F624" s="17"/>
       <c r="G624" s="17"/>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" s="17"/>
       <c r="B625" s="17"/>
       <c r="C625" s="17"/>
@@ -9360,7 +9363,7 @@
       <c r="F625" s="17"/>
       <c r="G625" s="17"/>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" s="17"/>
       <c r="B626" s="17"/>
       <c r="C626" s="17"/>
@@ -9369,7 +9372,7 @@
       <c r="F626" s="17"/>
       <c r="G626" s="17"/>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" s="17"/>
       <c r="B627" s="17"/>
       <c r="C627" s="17"/>
@@ -9378,7 +9381,7 @@
       <c r="F627" s="17"/>
       <c r="G627" s="17"/>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" s="17"/>
       <c r="B628" s="17"/>
       <c r="C628" s="17"/>
@@ -9387,7 +9390,7 @@
       <c r="F628" s="17"/>
       <c r="G628" s="17"/>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" s="17"/>
       <c r="B629" s="17"/>
       <c r="C629" s="17"/>
@@ -9396,7 +9399,7 @@
       <c r="F629" s="17"/>
       <c r="G629" s="17"/>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" s="17"/>
       <c r="B630" s="17"/>
       <c r="C630" s="17"/>
@@ -9405,7 +9408,7 @@
       <c r="F630" s="17"/>
       <c r="G630" s="17"/>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" s="17"/>
       <c r="B631" s="17"/>
       <c r="C631" s="17"/>
@@ -9414,7 +9417,7 @@
       <c r="F631" s="17"/>
       <c r="G631" s="17"/>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" s="17"/>
       <c r="B632" s="17"/>
       <c r="C632" s="17"/>
@@ -9423,7 +9426,7 @@
       <c r="F632" s="17"/>
       <c r="G632" s="17"/>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" s="17"/>
       <c r="B633" s="17"/>
       <c r="C633" s="17"/>
@@ -9432,7 +9435,7 @@
       <c r="F633" s="17"/>
       <c r="G633" s="17"/>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" s="17"/>
       <c r="B634" s="17"/>
       <c r="C634" s="17"/>
@@ -9441,7 +9444,7 @@
       <c r="F634" s="17"/>
       <c r="G634" s="17"/>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" s="17"/>
       <c r="B635" s="17"/>
       <c r="C635" s="17"/>
@@ -9450,7 +9453,7 @@
       <c r="F635" s="17"/>
       <c r="G635" s="17"/>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" s="17"/>
       <c r="B636" s="17"/>
       <c r="C636" s="17"/>
@@ -9459,7 +9462,7 @@
       <c r="F636" s="17"/>
       <c r="G636" s="17"/>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" s="17"/>
       <c r="B637" s="17"/>
       <c r="C637" s="17"/>
@@ -9468,7 +9471,7 @@
       <c r="F637" s="17"/>
       <c r="G637" s="17"/>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" s="17"/>
       <c r="B638" s="17"/>
       <c r="C638" s="17"/>
@@ -9477,7 +9480,7 @@
       <c r="F638" s="17"/>
       <c r="G638" s="17"/>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" s="17"/>
       <c r="B639" s="17"/>
       <c r="C639" s="17"/>
@@ -9486,7 +9489,7 @@
       <c r="F639" s="17"/>
       <c r="G639" s="17"/>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" s="17"/>
       <c r="B640" s="17"/>
       <c r="C640" s="17"/>
@@ -9495,7 +9498,7 @@
       <c r="F640" s="17"/>
       <c r="G640" s="17"/>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641" s="17"/>
       <c r="B641" s="17"/>
       <c r="C641" s="17"/>
@@ -9504,7 +9507,7 @@
       <c r="F641" s="17"/>
       <c r="G641" s="17"/>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642" s="17"/>
       <c r="B642" s="17"/>
       <c r="C642" s="17"/>
@@ -9513,7 +9516,7 @@
       <c r="F642" s="17"/>
       <c r="G642" s="17"/>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" s="17"/>
       <c r="B643" s="17"/>
       <c r="C643" s="17"/>
@@ -9522,7 +9525,7 @@
       <c r="F643" s="17"/>
       <c r="G643" s="17"/>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644" s="17"/>
       <c r="B644" s="17"/>
       <c r="C644" s="17"/>
@@ -9531,7 +9534,7 @@
       <c r="F644" s="17"/>
       <c r="G644" s="17"/>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645" s="17"/>
       <c r="B645" s="17"/>
       <c r="C645" s="17"/>
@@ -9540,7 +9543,7 @@
       <c r="F645" s="17"/>
       <c r="G645" s="17"/>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" s="17"/>
       <c r="B646" s="17"/>
       <c r="C646" s="17"/>
@@ -9549,7 +9552,7 @@
       <c r="F646" s="17"/>
       <c r="G646" s="17"/>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" s="17"/>
       <c r="B647" s="17"/>
       <c r="C647" s="17"/>
@@ -9558,7 +9561,7 @@
       <c r="F647" s="17"/>
       <c r="G647" s="17"/>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" s="17"/>
       <c r="B648" s="17"/>
       <c r="C648" s="17"/>
@@ -9567,7 +9570,7 @@
       <c r="F648" s="17"/>
       <c r="G648" s="17"/>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" s="17"/>
       <c r="B649" s="17"/>
       <c r="C649" s="17"/>
@@ -9586,19 +9589,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3A0074-F503-401D-99FF-9C9286B795D4}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9612,7 +9615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -9620,7 +9623,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -9628,7 +9631,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -9636,7 +9639,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -9644,7 +9647,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -9652,7 +9655,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -9660,7 +9663,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -9668,7 +9671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -9676,7 +9679,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -9684,7 +9687,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -9692,7 +9695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -9700,7 +9703,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -9708,7 +9711,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -9716,7 +9719,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -9724,7 +9727,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -9740,7 +9743,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -9748,7 +9751,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -9756,7 +9759,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -9764,7 +9767,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -9772,7 +9775,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -9780,7 +9783,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -9788,7 +9791,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -9796,7 +9799,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -9804,7 +9807,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -9812,7 +9815,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -9820,7 +9823,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -9828,7 +9831,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -9836,7 +9839,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -9844,7 +9847,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -9852,7 +9855,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -9860,15 +9863,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -9876,7 +9879,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -9884,7 +9887,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -9892,15 +9895,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="57" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -9908,7 +9911,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -9916,7 +9919,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -9924,7 +9927,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -9932,7 +9935,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -9940,7 +9943,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -9948,7 +9951,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -9956,7 +9959,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -9964,7 +9967,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -9972,7 +9975,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -9980,15 +9983,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="57" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -9996,7 +9999,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -10004,7 +10007,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -10012,7 +10015,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -10020,7 +10023,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -10028,7 +10031,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -10036,7 +10039,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -10044,7 +10047,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -10052,7 +10055,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -10060,7 +10063,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -10068,7 +10071,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -10076,7 +10079,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -10084,7 +10087,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -10092,7 +10095,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -10100,7 +10103,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -10108,7 +10111,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -10116,7 +10119,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -10124,7 +10127,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -10132,7 +10135,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -10140,7 +10143,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>56</v>
       </c>
@@ -10148,7 +10151,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>56</v>
       </c>
@@ -10156,7 +10159,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -10164,7 +10167,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>56</v>
       </c>
@@ -10172,84 +10175,114 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>185</v>
       </c>
       <c r="B72" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>185</v>
       </c>
       <c r="B73" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>185</v>
       </c>
       <c r="B74" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>185</v>
       </c>
       <c r="B75" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>185</v>
       </c>
       <c r="B76" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>185</v>
       </c>
       <c r="B77" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>185</v>
       </c>
       <c r="B78" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>185</v>
       </c>
       <c r="B79" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>185</v>
       </c>
       <c r="B80" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>185</v>
       </c>
       <c r="B81" t="s">
         <v>195</v>
+      </c>
+      <c r="D81" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -10267,18 +10300,18 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D16" sqref="D16:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10292,7 +10325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -10303,7 +10336,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -10314,7 +10347,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -10325,7 +10358,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -10336,7 +10369,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -10347,7 +10380,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -10358,7 +10391,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -10369,7 +10402,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>185</v>
       </c>
@@ -10380,7 +10413,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -10391,7 +10424,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -10402,7 +10435,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>185</v>
       </c>
@@ -10413,7 +10446,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>185</v>
       </c>
@@ -10424,7 +10457,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -10435,7 +10468,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -10446,7 +10479,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -10456,8 +10489,11 @@
       <c r="C16" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -10467,8 +10503,11 @@
       <c r="C17" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>185</v>
       </c>
@@ -10477,6 +10516,9 @@
       </c>
       <c r="C18" t="s">
         <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -10493,19 +10535,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209A230F-0E33-4BEC-A4B4-A1BFBE0D80D6}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B59" activeCellId="1" sqref="B69 B59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10519,207 +10561,282 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>197</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>197</v>
       </c>
       <c r="B3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>197</v>
       </c>
       <c r="B4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>197</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>197</v>
       </c>
       <c r="B6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>197</v>
       </c>
       <c r="B7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>197</v>
       </c>
       <c r="B8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="57" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>197</v>
       </c>
       <c r="B10" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>197</v>
       </c>
       <c r="B11" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>197</v>
       </c>
       <c r="B12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>197</v>
       </c>
       <c r="B13" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>197</v>
       </c>
       <c r="B14" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>197</v>
       </c>
       <c r="B15" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>197</v>
       </c>
       <c r="B16" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>197</v>
       </c>
       <c r="B17" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>197</v>
       </c>
       <c r="B18" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>197</v>
       </c>
       <c r="B19" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>197</v>
       </c>
       <c r="B20" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>197</v>
       </c>
       <c r="B21" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>197</v>
       </c>
       <c r="B22" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>197</v>
       </c>
       <c r="B23" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>197</v>
       </c>
       <c r="B24" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>197</v>
       </c>
       <c r="B25" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>197</v>
       </c>
       <c r="B26" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>198</v>
       </c>
@@ -10727,7 +10844,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>198</v>
       </c>
@@ -10735,7 +10852,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>198</v>
       </c>
@@ -10743,7 +10860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>198</v>
       </c>
@@ -10751,7 +10868,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>198</v>
       </c>
@@ -10759,7 +10876,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>198</v>
       </c>
@@ -10767,7 +10884,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>198</v>
       </c>
@@ -10775,7 +10892,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>198</v>
       </c>
@@ -10783,7 +10900,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>198</v>
       </c>
@@ -10791,7 +10908,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>198</v>
       </c>
@@ -10799,7 +10916,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -10807,7 +10924,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -10815,7 +10932,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>198</v>
       </c>
@@ -10823,7 +10940,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -10831,7 +10948,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -10839,7 +10956,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>198</v>
       </c>
@@ -10847,7 +10964,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -10855,7 +10972,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>198</v>
       </c>
@@ -10863,7 +10980,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -10871,7 +10988,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -10879,7 +10996,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>198</v>
       </c>
@@ -10887,7 +11004,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>198</v>
       </c>
@@ -10895,7 +11012,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>198</v>
       </c>
@@ -10903,7 +11020,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>198</v>
       </c>
@@ -10911,7 +11028,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>198</v>
       </c>
@@ -10919,7 +11036,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>198</v>
       </c>
@@ -10927,7 +11044,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>198</v>
       </c>
@@ -10935,7 +11052,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>198</v>
       </c>
@@ -10943,7 +11060,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>198</v>
       </c>
@@ -10951,7 +11068,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>198</v>
       </c>
@@ -10959,7 +11076,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>198</v>
       </c>
@@ -10967,7 +11084,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>198</v>
       </c>
@@ -10975,15 +11092,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>198</v>
       </c>
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="57" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>198</v>
       </c>
@@ -10991,7 +11108,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>198</v>
       </c>
@@ -10999,7 +11116,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>198</v>
       </c>
@@ -11007,7 +11124,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>198</v>
       </c>
@@ -11015,7 +11132,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>198</v>
       </c>
@@ -11023,7 +11140,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -11031,7 +11148,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>198</v>
       </c>
@@ -11039,7 +11156,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>198</v>
       </c>
@@ -11047,7 +11164,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -11055,15 +11172,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="69" t="s">
+      <c r="B69" s="57" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -11071,7 +11188,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>198</v>
       </c>
@@ -11079,7 +11196,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>198</v>
       </c>
@@ -11087,7 +11204,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>198</v>
       </c>
@@ -11095,7 +11212,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -11103,7 +11220,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>198</v>
       </c>
@@ -11111,7 +11228,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>198</v>
       </c>
@@ -11119,7 +11236,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>198</v>
       </c>
@@ -11127,7 +11244,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>198</v>
       </c>
@@ -11135,7 +11252,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>198</v>
       </c>
@@ -11143,7 +11260,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -11151,7 +11268,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>198</v>
       </c>
@@ -11159,7 +11276,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>198</v>
       </c>
@@ -11167,7 +11284,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>198</v>
       </c>
@@ -11175,7 +11292,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>198</v>
       </c>
@@ -11183,7 +11300,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>198</v>
       </c>
@@ -11191,7 +11308,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>198</v>
       </c>
@@ -11199,7 +11316,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>198</v>
       </c>
@@ -11207,7 +11324,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>198</v>
       </c>
@@ -11215,7 +11332,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>198</v>
       </c>
@@ -11238,18 +11355,18 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11263,7 +11380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -11274,7 +11391,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -11285,7 +11402,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -11295,8 +11412,11 @@
       <c r="C4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -11305,6 +11425,9 @@
       </c>
       <c r="C5" t="s">
         <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -11325,15 +11448,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11347,7 +11470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -11355,7 +11478,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -11363,7 +11486,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>199</v>
       </c>
@@ -11371,7 +11494,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -11379,7 +11502,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -11387,7 +11510,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -11395,7 +11518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>199</v>
       </c>
@@ -11403,15 +11526,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>199</v>
       </c>
@@ -11419,7 +11542,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -11427,7 +11550,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -11435,7 +11558,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>199</v>
       </c>
@@ -11443,7 +11566,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>199</v>
       </c>
@@ -11451,7 +11574,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>199</v>
       </c>
@@ -11459,7 +11582,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -11467,7 +11590,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -11475,7 +11598,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -11483,7 +11606,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>199</v>
       </c>
@@ -11491,7 +11614,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -11499,7 +11622,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -11507,7 +11630,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -11515,7 +11638,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>199</v>
       </c>
@@ -11523,7 +11646,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -11531,7 +11654,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>199</v>
       </c>
@@ -11539,7 +11662,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>199</v>
       </c>
